--- a/voti_contro.xlsx
+++ b/voti_contro.xlsx
@@ -507,31 +507,31 @@
         <v>6.333333333333333</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5.811111111111111</v>
       </c>
       <c r="D2">
-        <v>6.174418604651163</v>
+        <v>6.023809523809524</v>
       </c>
       <c r="E2">
-        <v>6.235294117647059</v>
+        <v>6.194444444444445</v>
       </c>
       <c r="F2">
-        <v>5.277777777777778</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="G2">
-        <v>6.045454545454546</v>
+        <v>5.811111111111111</v>
       </c>
       <c r="H2">
-        <v>6.546511627906977</v>
+        <v>6.464285714285714</v>
       </c>
       <c r="I2">
-        <v>7.294117647058823</v>
+        <v>7.5</v>
       </c>
       <c r="J2">
-        <v>5.833333333333331</v>
+        <v>5.499999999999998</v>
       </c>
       <c r="K2">
-        <v>6.295454545454546</v>
+        <v>5.937283950617283</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,34 +539,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5.9375</v>
+        <v>6.0625</v>
       </c>
       <c r="C3">
-        <v>5.857142857142857</v>
+        <v>5.773809523809524</v>
       </c>
       <c r="D3">
-        <v>5.98936170212766</v>
+        <v>5.925531914893617</v>
       </c>
       <c r="E3">
-        <v>6.142857142857143</v>
+        <v>6.075</v>
       </c>
       <c r="F3">
-        <v>4.25</v>
+        <v>4.375</v>
       </c>
       <c r="G3">
-        <v>6.083333333333333</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="H3">
-        <v>6.23404255319149</v>
+        <v>6.138297872340425</v>
       </c>
       <c r="I3">
-        <v>7.119047619047619</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>4.455078125</v>
+        <v>4.673828125</v>
       </c>
       <c r="K3">
-        <v>6.23639455782313</v>
+        <v>6.03450963718821</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,34 +574,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6.5625</v>
+        <v>6.625</v>
       </c>
       <c r="C4">
-        <v>6.121951219512195</v>
+        <v>6.175</v>
       </c>
       <c r="D4">
-        <v>6.043478260869565</v>
+        <v>6.095744680851064</v>
       </c>
       <c r="E4">
-        <v>6.043478260869565</v>
+        <v>6.104166666666667</v>
       </c>
       <c r="F4">
+        <v>6.8125</v>
+      </c>
+      <c r="G4">
+        <v>6.275</v>
+      </c>
+      <c r="H4">
+        <v>6.319148936170213</v>
+      </c>
+      <c r="I4">
         <v>6.75</v>
       </c>
-      <c r="G4">
-        <v>6.304878048780488</v>
-      </c>
-      <c r="H4">
-        <v>6.206521739130435</v>
-      </c>
-      <c r="I4">
-        <v>6.521739130434782</v>
-      </c>
       <c r="J4">
-        <v>7.580078125</v>
+        <v>7.7265625</v>
       </c>
       <c r="K4">
-        <v>6.653777513384892</v>
+        <v>6.671562500000002</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,34 +609,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.1875</v>
+        <v>6.125</v>
       </c>
       <c r="C5">
-        <v>5.974358974358974</v>
+        <v>5.973684210526316</v>
       </c>
       <c r="D5">
-        <v>6.133333333333334</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="E5">
-        <v>6.023809523809524</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>5.3125</v>
+        <v>5.1875</v>
       </c>
       <c r="G5">
-        <v>6.025641025641026</v>
+        <v>6.052631578947368</v>
       </c>
       <c r="H5">
-        <v>6.522222222222222</v>
+        <v>6.456521739130435</v>
       </c>
       <c r="I5">
-        <v>6.476190476190476</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="J5">
-        <v>5.720703125</v>
+        <v>5.5390625</v>
       </c>
       <c r="K5">
-        <v>6.256738987508218</v>
+        <v>6.283240997229919</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -644,34 +644,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.125</v>
+        <v>6.0625</v>
       </c>
       <c r="C6">
-        <v>5.722222222222222</v>
+        <v>5.782608695652174</v>
       </c>
       <c r="D6">
-        <v>5.985714285714286</v>
+        <v>5.958333333333333</v>
       </c>
       <c r="E6">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="F6">
-        <v>4.375</v>
+        <v>4.4375</v>
       </c>
       <c r="G6">
-        <v>5.666666666666667</v>
+        <v>5.739130434782608</v>
       </c>
       <c r="H6">
-        <v>6.085714285714285</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="I6">
-        <v>7.04</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="J6">
-        <v>4.7265625</v>
+        <v>4.736328125</v>
       </c>
       <c r="K6">
-        <v>5.746913580246914</v>
+        <v>5.849716446124762</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -682,31 +682,31 @@
         <v>5.875</v>
       </c>
       <c r="C7">
-        <v>5.407894736842105</v>
+        <v>5.475</v>
       </c>
       <c r="D7">
-        <v>5.877777777777778</v>
+        <v>5.855555555555555</v>
       </c>
       <c r="E7">
-        <v>5.75</v>
+        <v>5.782608695652174</v>
       </c>
       <c r="F7">
-        <v>3.25</v>
+        <v>3.375</v>
       </c>
       <c r="G7">
-        <v>5.407894736842105</v>
+        <v>5.4625</v>
       </c>
       <c r="H7">
-        <v>6.155555555555556</v>
+        <v>6.122222222222222</v>
       </c>
       <c r="I7">
-        <v>6.125</v>
+        <v>6.173913043478261</v>
       </c>
       <c r="J7">
-        <v>3.4140625</v>
+        <v>3.5390625</v>
       </c>
       <c r="K7">
-        <v>5.389110110803325</v>
+        <v>5.4565625</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,34 +714,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.375</v>
+        <v>6.3125</v>
       </c>
       <c r="C8">
-        <v>5.792682926829269</v>
+        <v>5.853658536585366</v>
       </c>
       <c r="D8">
-        <v>5.840909090909091</v>
+        <v>5.966666666666667</v>
       </c>
       <c r="E8">
-        <v>5.727272727272728</v>
+        <v>5.863636363636363</v>
       </c>
       <c r="F8">
-        <v>4.625</v>
+        <v>4.5625</v>
       </c>
       <c r="G8">
-        <v>5.695121951219512</v>
+        <v>5.865853658536586</v>
       </c>
       <c r="H8">
-        <v>5.772727272727272</v>
+        <v>6.088888888888889</v>
       </c>
       <c r="I8">
-        <v>5.590909090909091</v>
+        <v>6.045454545454546</v>
       </c>
       <c r="J8">
-        <v>5.2265625</v>
+        <v>5.095703125</v>
       </c>
       <c r="K8">
-        <v>5.811124330755501</v>
+        <v>6.01680547293278</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,34 +749,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.1875</v>
+        <v>6.125</v>
       </c>
       <c r="C9">
-        <v>5.925</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9">
-        <v>6.125</v>
+        <v>6.056818181818182</v>
       </c>
       <c r="E9">
-        <v>6.166666666666667</v>
+        <v>6.08</v>
       </c>
       <c r="F9">
-        <v>5.0625</v>
+        <v>4.75</v>
       </c>
       <c r="G9">
-        <v>5.9375</v>
+        <v>5.82051282051282</v>
       </c>
       <c r="H9">
-        <v>6.329545454545454</v>
+        <v>6.261363636363637</v>
       </c>
       <c r="I9">
-        <v>6.916666666666667</v>
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>5.470703125</v>
+        <v>5.1015625</v>
       </c>
       <c r="K9">
-        <v>6.134062499999999</v>
+        <v>5.959401709401706</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,34 +784,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.125</v>
+        <v>6.0625</v>
       </c>
       <c r="C10">
-        <v>5.833333333333333</v>
+        <v>5.761904761904762</v>
       </c>
       <c r="D10">
-        <v>5.7375</v>
+        <v>5.75609756097561</v>
       </c>
       <c r="E10">
-        <v>6.078947368421052</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>5.0625</v>
+        <v>4.9375</v>
       </c>
       <c r="G10">
-        <v>5.761904761904762</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="H10">
-        <v>5.85</v>
+        <v>5.865853658536586</v>
       </c>
       <c r="I10">
-        <v>6.894736842105263</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="J10">
-        <v>5.4140625</v>
+        <v>5.236328125</v>
       </c>
       <c r="K10">
-        <v>5.900793650793648</v>
+        <v>5.814058956916099</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,34 +819,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6.25</v>
+        <v>6.1875</v>
       </c>
       <c r="C11">
-        <v>5.74468085106383</v>
+        <v>5.793478260869565</v>
       </c>
       <c r="D11">
-        <v>6.012820512820513</v>
+        <v>6.089743589743589</v>
       </c>
       <c r="E11">
-        <v>5.75</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="F11">
-        <v>4.375</v>
+        <v>4.3125</v>
       </c>
       <c r="G11">
-        <v>5.797872340425532</v>
+        <v>5.847826086956522</v>
       </c>
       <c r="H11">
-        <v>6.192307692307693</v>
+        <v>6.346153846153846</v>
       </c>
       <c r="I11">
-        <v>5.895833333333333</v>
+        <v>5.979166666666667</v>
       </c>
       <c r="J11">
-        <v>4.84375</v>
+        <v>4.720703125</v>
       </c>
       <c r="K11">
-        <v>5.88897691263015</v>
+        <v>5.964260396975424</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -854,34 +854,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6.125</v>
+        <v>6.0625</v>
       </c>
       <c r="C12">
-        <v>5.964285714285714</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="D12">
-        <v>5.989130434782608</v>
+        <v>5.920454545454546</v>
       </c>
       <c r="E12">
-        <v>5.931818181818182</v>
+        <v>5.958333333333333</v>
       </c>
       <c r="F12">
-        <v>4.875</v>
+        <v>4.4375</v>
       </c>
       <c r="G12">
-        <v>5.964285714285714</v>
+        <v>5.930232558139535</v>
       </c>
       <c r="H12">
-        <v>6.336956521739131</v>
+        <v>6.215909090909091</v>
       </c>
       <c r="I12">
-        <v>6.522727272727272</v>
+        <v>6.75</v>
       </c>
       <c r="J12">
-        <v>5.2265625</v>
+        <v>4.736328125</v>
       </c>
       <c r="K12">
-        <v>6.188137755102043</v>
+        <v>6.085316387236341</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -889,34 +889,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6.3125</v>
+        <v>6.1875</v>
       </c>
       <c r="C13">
-        <v>5.6</v>
+        <v>5.486486486486487</v>
       </c>
       <c r="D13">
-        <v>5.76829268292683</v>
+        <v>5.677777777777778</v>
       </c>
       <c r="E13">
-        <v>5.913043478260869</v>
+        <v>5.869565217391305</v>
       </c>
       <c r="F13">
-        <v>4.5</v>
+        <v>4.1875</v>
       </c>
       <c r="G13">
-        <v>5.5125</v>
+        <v>5.337837837837838</v>
       </c>
       <c r="H13">
-        <v>5.707317073170731</v>
+        <v>5.633333333333334</v>
       </c>
       <c r="I13">
-        <v>6.456521739130435</v>
+        <v>6.347826086956522</v>
       </c>
       <c r="J13">
-        <v>5.033203125</v>
+        <v>4.595703125</v>
       </c>
       <c r="K13">
-        <v>5.5425</v>
+        <v>5.3345507669832</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -924,34 +924,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6.0625</v>
+        <v>5.9375</v>
       </c>
       <c r="C14">
-        <v>5.904761904761905</v>
+        <v>5.880952380952381</v>
       </c>
       <c r="D14">
-        <v>6.077777777777778</v>
+        <v>6.090909090909091</v>
       </c>
       <c r="E14">
-        <v>6.083333333333333</v>
+        <v>6.147058823529412</v>
       </c>
       <c r="F14">
-        <v>4.9375</v>
+        <v>4.6875</v>
       </c>
       <c r="G14">
-        <v>5.928571428571429</v>
+        <v>5.880952380952381</v>
       </c>
       <c r="H14">
-        <v>6.188888888888889</v>
+        <v>6.227272727272728</v>
       </c>
       <c r="I14">
-        <v>6.388888888888889</v>
+        <v>6.470588235294118</v>
       </c>
       <c r="J14">
-        <v>5.236328125</v>
+        <v>4.892578125</v>
       </c>
       <c r="K14">
-        <v>6.111678004535149</v>
+        <v>6.048752834467118</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -962,31 +962,31 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>5.944444444444445</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>6.2</v>
+        <v>6.230769230769231</v>
       </c>
       <c r="E15">
-        <v>6.227272727272728</v>
+        <v>6.5</v>
       </c>
       <c r="F15">
+        <v>4.625</v>
+      </c>
+      <c r="G15">
+        <v>6.163043478260869</v>
+      </c>
+      <c r="H15">
+        <v>6.705128205128205</v>
+      </c>
+      <c r="I15">
+        <v>7.869565217391305</v>
+      </c>
+      <c r="J15">
         <v>4.875</v>
       </c>
-      <c r="G15">
-        <v>5.977777777777778</v>
-      </c>
-      <c r="H15">
-        <v>6.7</v>
-      </c>
-      <c r="I15">
-        <v>7.113636363636363</v>
-      </c>
-      <c r="J15">
-        <v>5.125</v>
-      </c>
       <c r="K15">
-        <v>6.187654320987654</v>
+        <v>6.413043478260869</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -994,34 +994,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6.1875</v>
+        <v>6.25</v>
       </c>
       <c r="C16">
-        <v>6.15</v>
+        <v>6.170731707317073</v>
       </c>
       <c r="D16">
-        <v>6.2125</v>
+        <v>6.184210526315789</v>
       </c>
       <c r="E16">
-        <v>6.25</v>
+        <v>6.227272727272728</v>
       </c>
       <c r="F16">
         <v>5.8125</v>
       </c>
       <c r="G16">
-        <v>6.35</v>
+        <v>6.414634146341464</v>
       </c>
       <c r="H16">
-        <v>6.5375</v>
+        <v>6.486842105263158</v>
       </c>
       <c r="I16">
-        <v>6.875</v>
+        <v>6.795454545454546</v>
       </c>
       <c r="J16">
-        <v>6.220703125</v>
+        <v>6.28125</v>
       </c>
       <c r="K16">
-        <v>6.723750000000001</v>
+        <v>6.80725758477097</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1032,31 +1032,31 @@
         <v>6.4375</v>
       </c>
       <c r="C17">
-        <v>6.1625</v>
+        <v>6.141025641025641</v>
       </c>
       <c r="D17">
-        <v>6.147727272727272</v>
+        <v>6.177777777777778</v>
       </c>
       <c r="E17">
-        <v>6.25</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="F17">
-        <v>5.6875</v>
+        <v>5.8125</v>
       </c>
       <c r="G17">
-        <v>6.3625</v>
+        <v>6.282051282051282</v>
       </c>
       <c r="H17">
-        <v>6.579545454545454</v>
+        <v>6.677777777777778</v>
       </c>
       <c r="I17">
-        <v>7.25</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="J17">
-        <v>6.361328125</v>
+        <v>6.486328125</v>
       </c>
       <c r="K17">
-        <v>6.747578125</v>
+        <v>6.647764628533857</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1067,31 +1067,31 @@
         <v>6.4375</v>
       </c>
       <c r="C18">
-        <v>6.024390243902439</v>
+        <v>5.964285714285714</v>
       </c>
       <c r="D18">
-        <v>6.039473684210527</v>
+        <v>5.9875</v>
       </c>
       <c r="E18">
-        <v>5.983870967741935</v>
+        <v>5.964285714285714</v>
       </c>
       <c r="F18">
-        <v>5.3125</v>
+        <v>5.4375</v>
       </c>
       <c r="G18">
-        <v>6.280487804878049</v>
+        <v>6.154761904761905</v>
       </c>
       <c r="H18">
-        <v>6.315789473684211</v>
+        <v>6.1625</v>
       </c>
       <c r="I18">
-        <v>6.354838709677419</v>
+        <v>6.25</v>
       </c>
       <c r="J18">
-        <v>5.986328125</v>
+        <v>6.111328125</v>
       </c>
       <c r="K18">
-        <v>6.549077929803686</v>
+        <v>6.378613945578234</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1102,31 +1102,31 @@
         <v>6.25</v>
       </c>
       <c r="C19">
-        <v>5.725</v>
+        <v>5.755813953488372</v>
       </c>
       <c r="D19">
-        <v>5.920454545454546</v>
+        <v>5.953488372093023</v>
       </c>
       <c r="E19">
-        <v>5.891304347826087</v>
+        <v>5.904761904761905</v>
       </c>
       <c r="F19">
         <v>4.9375</v>
       </c>
       <c r="G19">
-        <v>5.7625</v>
+        <v>5.744186046511628</v>
       </c>
       <c r="H19">
-        <v>6.193181818181818</v>
+        <v>6.22093023255814</v>
       </c>
       <c r="I19">
-        <v>6.108695652173913</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="J19">
         <v>5.40625</v>
       </c>
       <c r="K19">
-        <v>5.844062500000001</v>
+        <v>5.840859924283399</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1134,34 +1134,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6.3125</v>
+        <v>6.375</v>
       </c>
       <c r="C20">
-        <v>6.095238095238095</v>
+        <v>6.104651162790698</v>
       </c>
       <c r="D20">
-        <v>6.113636363636363</v>
+        <v>6.181818181818182</v>
       </c>
       <c r="E20">
-        <v>6.131578947368421</v>
+        <v>6.194444444444445</v>
       </c>
       <c r="F20">
-        <v>5.5</v>
+        <v>5.4375</v>
       </c>
       <c r="G20">
-        <v>6.238095238095238</v>
+        <v>6.302325581395348</v>
       </c>
       <c r="H20">
-        <v>6.352272727272728</v>
+        <v>6.454545454545454</v>
       </c>
       <c r="I20">
-        <v>6.684210526315789</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="J20">
-        <v>6.033203125</v>
+        <v>6.0390625</v>
       </c>
       <c r="K20">
-        <v>6.564058956916097</v>
+        <v>6.636289886425094</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1172,31 +1172,31 @@
         <v>6.166666666666667</v>
       </c>
       <c r="C21">
-        <v>5.934210526315789</v>
+        <v>5.961538461538462</v>
       </c>
       <c r="D21">
-        <v>6.155555555555556</v>
+        <v>6.170454545454546</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>6.022727272727272</v>
       </c>
       <c r="F21">
-        <v>5.388888888888889</v>
+        <v>5.5</v>
       </c>
       <c r="G21">
-        <v>5.881578947368421</v>
+        <v>5.923076923076923</v>
       </c>
       <c r="H21">
-        <v>6.733333333333333</v>
+        <v>6.693181818181818</v>
       </c>
       <c r="I21">
-        <v>6.565217391304348</v>
+        <v>6.727272727272728</v>
       </c>
       <c r="J21">
-        <v>5.777777777777779</v>
+        <v>5.888888888888889</v>
       </c>
       <c r="K21">
-        <v>6.084400969529085</v>
+        <v>6.144970414201183</v>
       </c>
     </row>
   </sheetData>

--- a/voti_contro.xlsx
+++ b/voti_contro.xlsx
@@ -504,34 +504,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.333333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="C2">
-        <v>5.811111111111111</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="D2">
-        <v>6.023809523809524</v>
+        <v>6.097560975609756</v>
       </c>
       <c r="E2">
-        <v>6.194444444444445</v>
+        <v>6.181818181818182</v>
       </c>
       <c r="F2">
-        <v>4.944444444444445</v>
+        <v>3.5</v>
       </c>
       <c r="G2">
-        <v>5.811111111111111</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="H2">
-        <v>6.464285714285714</v>
+        <v>6.646341463414634</v>
       </c>
       <c r="I2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>5.499999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="K2">
-        <v>5.937283950617283</v>
+        <v>6.056122448979592</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,34 +539,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6.0625</v>
+        <v>5.9375</v>
       </c>
       <c r="C3">
-        <v>5.773809523809524</v>
+        <v>5.828571428571428</v>
       </c>
       <c r="D3">
-        <v>5.925531914893617</v>
+        <v>6.010416666666667</v>
       </c>
       <c r="E3">
-        <v>6.075</v>
+        <v>5.9375</v>
       </c>
       <c r="F3">
-        <v>4.375</v>
+        <v>4.4375</v>
       </c>
       <c r="G3">
-        <v>5.928571428571429</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="H3">
-        <v>6.138297872340425</v>
+        <v>6.21875</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="J3">
-        <v>4.673828125</v>
+        <v>4.642578125</v>
       </c>
       <c r="K3">
-        <v>6.03450963718821</v>
+        <v>5.921836734693877</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,34 +574,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6.625</v>
+        <v>6.1875</v>
       </c>
       <c r="C4">
-        <v>6.175</v>
+        <v>5.95945945945946</v>
       </c>
       <c r="D4">
-        <v>6.095744680851064</v>
+        <v>6.125</v>
       </c>
       <c r="E4">
-        <v>6.104166666666667</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>6.8125</v>
+        <v>5.1875</v>
       </c>
       <c r="G4">
-        <v>6.275</v>
+        <v>6.256756756756757</v>
       </c>
       <c r="H4">
-        <v>6.319148936170213</v>
+        <v>6.65625</v>
       </c>
       <c r="I4">
-        <v>6.75</v>
+        <v>6.545454545454546</v>
       </c>
       <c r="J4">
-        <v>7.7265625</v>
+        <v>5.595703125</v>
       </c>
       <c r="K4">
-        <v>6.671562500000002</v>
+        <v>6.477173119065013</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,34 +609,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.125</v>
+        <v>6.25</v>
       </c>
       <c r="C5">
-        <v>5.973684210526316</v>
+        <v>5.877777777777778</v>
       </c>
       <c r="D5">
-        <v>6.086956521739131</v>
+        <v>5.846153846153846</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>5.1875</v>
+        <v>4.75</v>
       </c>
       <c r="G5">
-        <v>6.052631578947368</v>
+        <v>5.811111111111111</v>
       </c>
       <c r="H5">
-        <v>6.456521739130435</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>6.428571428571429</v>
+        <v>6.94</v>
       </c>
       <c r="J5">
-        <v>5.5390625</v>
+        <v>5.21875</v>
       </c>
       <c r="K5">
-        <v>6.283240997229919</v>
+        <v>5.976913580246916</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -644,34 +644,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.0625</v>
+        <v>6.1875</v>
       </c>
       <c r="C6">
-        <v>5.782608695652174</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="D6">
-        <v>5.958333333333333</v>
+        <v>5.875</v>
       </c>
       <c r="E6">
-        <v>6.25</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="F6">
-        <v>4.4375</v>
+        <v>4.25</v>
       </c>
       <c r="G6">
-        <v>5.739130434782608</v>
+        <v>5.7</v>
       </c>
       <c r="H6">
-        <v>6.041666666666667</v>
+        <v>5.9875</v>
       </c>
       <c r="I6">
-        <v>7.395833333333333</v>
+        <v>6.904761904761905</v>
       </c>
       <c r="J6">
-        <v>4.736328125</v>
+        <v>4.658203125</v>
       </c>
       <c r="K6">
-        <v>5.849716446124762</v>
+        <v>5.785555555555555</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -679,34 +679,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.875</v>
+        <v>6.3125</v>
       </c>
       <c r="C7">
-        <v>5.475</v>
+        <v>5.5125</v>
       </c>
       <c r="D7">
-        <v>5.855555555555555</v>
+        <v>5.954545454545454</v>
       </c>
       <c r="E7">
-        <v>5.782608695652174</v>
+        <v>5.704545454545454</v>
       </c>
       <c r="F7">
-        <v>3.375</v>
+        <v>3.5625</v>
       </c>
       <c r="G7">
-        <v>5.4625</v>
+        <v>5.5375</v>
       </c>
       <c r="H7">
-        <v>6.122222222222222</v>
+        <v>6.397727272727272</v>
       </c>
       <c r="I7">
-        <v>6.173913043478261</v>
+        <v>5.659090909090909</v>
       </c>
       <c r="J7">
-        <v>3.5390625</v>
+        <v>4.095703125</v>
       </c>
       <c r="K7">
-        <v>5.4565625</v>
+        <v>5.540703125</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,31 +717,31 @@
         <v>6.3125</v>
       </c>
       <c r="C8">
-        <v>5.853658536585366</v>
+        <v>6.0125</v>
       </c>
       <c r="D8">
-        <v>5.966666666666667</v>
+        <v>6.182926829268292</v>
       </c>
       <c r="E8">
-        <v>5.863636363636363</v>
+        <v>6.282608695652174</v>
       </c>
       <c r="F8">
-        <v>4.5625</v>
+        <v>5.6875</v>
       </c>
       <c r="G8">
-        <v>5.865853658536586</v>
+        <v>6.0375</v>
       </c>
       <c r="H8">
-        <v>6.088888888888889</v>
+        <v>6.25609756097561</v>
       </c>
       <c r="I8">
-        <v>6.045454545454546</v>
+        <v>7.195652173913044</v>
       </c>
       <c r="J8">
-        <v>5.095703125</v>
+        <v>6.220703125</v>
       </c>
       <c r="K8">
-        <v>6.01680547293278</v>
+        <v>6.296953125</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,34 +749,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.125</v>
+        <v>6.375</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>5.826086956521739</v>
       </c>
       <c r="D9">
-        <v>6.056818181818182</v>
+        <v>6.194444444444445</v>
       </c>
       <c r="E9">
-        <v>6.08</v>
+        <v>5.934782608695652</v>
       </c>
       <c r="F9">
-        <v>4.75</v>
+        <v>4.8125</v>
       </c>
       <c r="G9">
-        <v>5.82051282051282</v>
+        <v>5.836956521739131</v>
       </c>
       <c r="H9">
-        <v>6.261363636363637</v>
+        <v>6.5</v>
       </c>
       <c r="I9">
-        <v>6.8</v>
+        <v>6.260869565217392</v>
       </c>
       <c r="J9">
-        <v>5.1015625</v>
+        <v>5.4140625</v>
       </c>
       <c r="K9">
-        <v>5.959401709401706</v>
+        <v>5.97164461247637</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,34 +784,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.0625</v>
+        <v>6.125</v>
       </c>
       <c r="C10">
-        <v>5.761904761904762</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>5.75609756097561</v>
+        <v>5.947916666666667</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>6.15</v>
       </c>
       <c r="F10">
-        <v>4.9375</v>
+        <v>5.3125</v>
       </c>
       <c r="G10">
-        <v>5.714285714285714</v>
+        <v>5.8625</v>
       </c>
       <c r="H10">
-        <v>5.865853658536586</v>
+        <v>6.052083333333333</v>
       </c>
       <c r="I10">
-        <v>6.842105263157895</v>
+        <v>6.9</v>
       </c>
       <c r="J10">
-        <v>5.236328125</v>
+        <v>5.6640625</v>
       </c>
       <c r="K10">
-        <v>5.814058956916099</v>
+        <v>6.1125</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,34 +819,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6.1875</v>
+        <v>6.125</v>
       </c>
       <c r="C11">
-        <v>5.793478260869565</v>
+        <v>5.8875</v>
       </c>
       <c r="D11">
-        <v>6.089743589743589</v>
+        <v>5.865853658536586</v>
       </c>
       <c r="E11">
-        <v>5.833333333333333</v>
+        <v>5.976190476190476</v>
       </c>
       <c r="F11">
-        <v>4.3125</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>5.847826086956522</v>
+        <v>5.875</v>
       </c>
       <c r="H11">
-        <v>6.346153846153846</v>
+        <v>5.853658536585366</v>
       </c>
       <c r="I11">
-        <v>5.979166666666667</v>
+        <v>6.547619047619047</v>
       </c>
       <c r="J11">
-        <v>4.720703125</v>
+        <v>4.8515625</v>
       </c>
       <c r="K11">
-        <v>5.964260396975424</v>
+        <v>6.046953125000002</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -854,34 +854,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6.0625</v>
+        <v>6.25</v>
       </c>
       <c r="C12">
-        <v>5.86046511627907</v>
+        <v>5.67948717948718</v>
       </c>
       <c r="D12">
-        <v>5.920454545454546</v>
+        <v>5.887755102040816</v>
       </c>
       <c r="E12">
-        <v>5.958333333333333</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>4.4375</v>
+        <v>5.125</v>
       </c>
       <c r="G12">
-        <v>5.930232558139535</v>
+        <v>5.576923076923077</v>
       </c>
       <c r="H12">
-        <v>6.215909090909091</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="I12">
-        <v>6.75</v>
+        <v>6.545454545454546</v>
       </c>
       <c r="J12">
-        <v>4.736328125</v>
+        <v>5.59375</v>
       </c>
       <c r="K12">
-        <v>6.085316387236341</v>
+        <v>5.637902695595002</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -889,34 +889,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6.1875</v>
+        <v>6.125</v>
       </c>
       <c r="C13">
-        <v>5.486486486486487</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="D13">
-        <v>5.677777777777778</v>
+        <v>6.036585365853658</v>
       </c>
       <c r="E13">
-        <v>5.869565217391305</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>4.1875</v>
+        <v>5.375</v>
       </c>
       <c r="G13">
-        <v>5.337837837837838</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="H13">
-        <v>5.633333333333334</v>
+        <v>6.109756097560975</v>
       </c>
       <c r="I13">
-        <v>6.347826086956522</v>
+        <v>6.543478260869565</v>
       </c>
       <c r="J13">
-        <v>4.595703125</v>
+        <v>5.7265625</v>
       </c>
       <c r="K13">
-        <v>5.3345507669832</v>
+        <v>6.413333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -924,34 +924,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>5.9375</v>
+        <v>6.0625</v>
       </c>
       <c r="C14">
-        <v>5.880952380952381</v>
+        <v>6.040816326530612</v>
       </c>
       <c r="D14">
-        <v>6.090909090909091</v>
+        <v>6.1</v>
       </c>
       <c r="E14">
-        <v>6.147058823529412</v>
+        <v>6.088235294117647</v>
       </c>
       <c r="F14">
-        <v>4.6875</v>
+        <v>4.875</v>
       </c>
       <c r="G14">
-        <v>5.880952380952381</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="H14">
-        <v>6.227272727272728</v>
+        <v>6.375</v>
       </c>
       <c r="I14">
-        <v>6.470588235294118</v>
+        <v>6.735294117647059</v>
       </c>
       <c r="J14">
-        <v>4.892578125</v>
+        <v>5.173828125</v>
       </c>
       <c r="K14">
-        <v>6.048752834467118</v>
+        <v>6.424302374010829</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -959,34 +959,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>5.6875</v>
+      </c>
+      <c r="C15">
+        <v>5.864864864864865</v>
+      </c>
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>6.230769230769231</v>
-      </c>
       <c r="E15">
-        <v>6.5</v>
+        <v>5.934782608695652</v>
       </c>
       <c r="F15">
-        <v>4.625</v>
+        <v>3.8125</v>
       </c>
       <c r="G15">
-        <v>6.163043478260869</v>
+        <v>6.094594594594595</v>
       </c>
       <c r="H15">
-        <v>6.705128205128205</v>
+        <v>6.195652173913044</v>
       </c>
       <c r="I15">
-        <v>7.869565217391305</v>
+        <v>6.608695652173913</v>
       </c>
       <c r="J15">
-        <v>4.875</v>
+        <v>3.876953125</v>
       </c>
       <c r="K15">
-        <v>6.413043478260869</v>
+        <v>6.252373995617239</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -994,34 +994,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6.25</v>
+        <v>6.125</v>
       </c>
       <c r="C16">
-        <v>6.170731707317073</v>
+        <v>6.1625</v>
       </c>
       <c r="D16">
-        <v>6.184210526315789</v>
+        <v>6.244186046511628</v>
       </c>
       <c r="E16">
-        <v>6.227272727272728</v>
+        <v>6.282608695652174</v>
       </c>
       <c r="F16">
-        <v>5.8125</v>
+        <v>5.375</v>
       </c>
       <c r="G16">
-        <v>6.414634146341464</v>
+        <v>6.475</v>
       </c>
       <c r="H16">
-        <v>6.486842105263158</v>
+        <v>6.744186046511628</v>
       </c>
       <c r="I16">
-        <v>6.795454545454546</v>
+        <v>7.608695652173913</v>
       </c>
       <c r="J16">
-        <v>6.28125</v>
+        <v>5.7265625</v>
       </c>
       <c r="K16">
-        <v>6.80725758477097</v>
+        <v>6.860078124999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1029,34 +1029,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>6.4375</v>
+        <v>6.3125</v>
       </c>
       <c r="C17">
-        <v>6.141025641025641</v>
+        <v>6.033333333333333</v>
       </c>
       <c r="D17">
-        <v>6.177777777777778</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="E17">
-        <v>6.285714285714286</v>
+        <v>6.175</v>
       </c>
       <c r="F17">
-        <v>5.8125</v>
+        <v>5.1875</v>
       </c>
       <c r="G17">
-        <v>6.282051282051282</v>
+        <v>6.088888888888889</v>
       </c>
       <c r="H17">
-        <v>6.677777777777778</v>
+        <v>6.577777777777778</v>
       </c>
       <c r="I17">
-        <v>7.285714285714286</v>
+        <v>7.125</v>
       </c>
       <c r="J17">
-        <v>6.486328125</v>
+        <v>5.720703125</v>
       </c>
       <c r="K17">
-        <v>6.647764628533857</v>
+        <v>6.364444444444441</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1064,34 +1064,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6.4375</v>
+        <v>6.375</v>
       </c>
       <c r="C18">
-        <v>5.964285714285714</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D18">
-        <v>5.9875</v>
+        <v>6.17948717948718</v>
       </c>
       <c r="E18">
-        <v>5.964285714285714</v>
+        <v>6.095238095238095</v>
       </c>
       <c r="F18">
-        <v>5.4375</v>
+        <v>5.75</v>
       </c>
       <c r="G18">
-        <v>6.154761904761905</v>
+        <v>6.440476190476191</v>
       </c>
       <c r="H18">
-        <v>6.1625</v>
+        <v>6.705128205128205</v>
       </c>
       <c r="I18">
-        <v>6.25</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="J18">
-        <v>6.111328125</v>
+        <v>6.3515625</v>
       </c>
       <c r="K18">
-        <v>6.378613945578234</v>
+        <v>6.82936507936508</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1099,34 +1099,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6.25</v>
+        <v>6.125</v>
       </c>
       <c r="C19">
-        <v>5.755813953488372</v>
+        <v>5.788888888888889</v>
       </c>
       <c r="D19">
-        <v>5.953488372093023</v>
+        <v>5.883720930232558</v>
       </c>
       <c r="E19">
-        <v>5.904761904761905</v>
+        <v>5.880952380952381</v>
       </c>
       <c r="F19">
-        <v>4.9375</v>
+        <v>4.625</v>
       </c>
       <c r="G19">
-        <v>5.744186046511628</v>
+        <v>5.722222222222222</v>
       </c>
       <c r="H19">
-        <v>6.22093023255814</v>
+        <v>5.883720930232558</v>
       </c>
       <c r="I19">
-        <v>6.142857142857143</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="J19">
-        <v>5.40625</v>
+        <v>4.9765625</v>
       </c>
       <c r="K19">
-        <v>5.840859924283399</v>
+        <v>5.836172839506173</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1134,34 +1134,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6.375</v>
+        <v>6.3125</v>
       </c>
       <c r="C20">
-        <v>6.104651162790698</v>
+        <v>6.011904761904762</v>
       </c>
       <c r="D20">
-        <v>6.181818181818182</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="E20">
-        <v>6.194444444444445</v>
+        <v>5.977272727272728</v>
       </c>
       <c r="F20">
-        <v>5.4375</v>
+        <v>5.6875</v>
       </c>
       <c r="G20">
-        <v>6.302325581395348</v>
+        <v>6.059523809523809</v>
       </c>
       <c r="H20">
-        <v>6.454545454545454</v>
+        <v>6.511904761904762</v>
       </c>
       <c r="I20">
-        <v>6.944444444444445</v>
+        <v>6.386363636363637</v>
       </c>
       <c r="J20">
-        <v>6.0390625</v>
+        <v>6.220703125</v>
       </c>
       <c r="K20">
-        <v>6.636289886425094</v>
+        <v>6.318523242630387</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1169,34 +1169,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6.166666666666667</v>
+        <v>6.0625</v>
       </c>
       <c r="C21">
-        <v>5.961538461538462</v>
+        <v>6.058139534883721</v>
       </c>
       <c r="D21">
-        <v>6.170454545454546</v>
+        <v>6.064102564102564</v>
       </c>
       <c r="E21">
-        <v>6.022727272727272</v>
+        <v>6.115384615384615</v>
       </c>
       <c r="F21">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="G21">
-        <v>5.923076923076923</v>
+        <v>6.104651162790698</v>
       </c>
       <c r="H21">
-        <v>6.693181818181818</v>
+        <v>6.346153846153846</v>
       </c>
       <c r="I21">
-        <v>6.727272727272728</v>
+        <v>6.980769230769231</v>
       </c>
       <c r="J21">
-        <v>5.888888888888889</v>
+        <v>5.548828125</v>
       </c>
       <c r="K21">
-        <v>6.144970414201183</v>
+        <v>6.399945916711736</v>
       </c>
     </row>
   </sheetData>

--- a/voti_contro.xlsx
+++ b/voti_contro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>MediaVoti_P</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>VERONA</t>
+  </si>
+  <si>
+    <t>CAGLIARI</t>
+  </si>
+  <si>
+    <t>FROSINONE</t>
+  </si>
+  <si>
+    <t>GENOA</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5.5</v>
+        <v>5.6875</v>
       </c>
       <c r="C2">
-        <v>5.928571428571429</v>
+        <v>5.75</v>
       </c>
       <c r="D2">
-        <v>6.097560975609756</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>6.181818181818182</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>2.9375</v>
       </c>
       <c r="G2">
-        <v>5.857142857142857</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="H2">
-        <v>6.646341463414634</v>
+        <v>6.425</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>6.659090909090909</v>
       </c>
       <c r="J2">
-        <v>3.5</v>
+        <v>3.001953125</v>
       </c>
       <c r="K2">
-        <v>6.056122448979592</v>
+        <v>5.879464285714286</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5.9375</v>
+        <v>5.6875</v>
       </c>
       <c r="C3">
-        <v>5.828571428571428</v>
+        <v>5.780487804878049</v>
       </c>
       <c r="D3">
-        <v>6.010416666666667</v>
+        <v>5.930232558139535</v>
       </c>
       <c r="E3">
-        <v>5.9375</v>
+        <v>5.96</v>
       </c>
       <c r="F3">
-        <v>4.4375</v>
+        <v>4.0625</v>
       </c>
       <c r="G3">
-        <v>5.785714285714286</v>
+        <v>5.719512195121951</v>
       </c>
       <c r="H3">
-        <v>6.21875</v>
+        <v>6.069767441860465</v>
       </c>
       <c r="I3">
-        <v>6.583333333333333</v>
+        <v>6.68</v>
       </c>
       <c r="J3">
-        <v>4.642578125</v>
+        <v>4.126953125</v>
       </c>
       <c r="K3">
-        <v>5.921836734693877</v>
+        <v>5.828970850684116</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6.1875</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="C4">
-        <v>5.95945945945946</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="D4">
-        <v>6.125</v>
+        <v>6.205882352941177</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="F4">
-        <v>5.1875</v>
+        <v>4.5</v>
       </c>
       <c r="G4">
-        <v>6.256756756756757</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H4">
-        <v>6.65625</v>
+        <v>6.911764705882353</v>
       </c>
       <c r="I4">
-        <v>6.545454545454546</v>
+        <v>7.5</v>
       </c>
       <c r="J4">
-        <v>5.595703125</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="K4">
-        <v>6.477173119065013</v>
+        <v>6.635555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.25</v>
+        <v>6.4375</v>
       </c>
       <c r="C5">
-        <v>5.877777777777778</v>
+        <v>6.170731707317073</v>
       </c>
       <c r="D5">
-        <v>5.846153846153846</v>
+        <v>6.134146341463414</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>6.104166666666667</v>
       </c>
       <c r="F5">
-        <v>4.75</v>
+        <v>5.8125</v>
       </c>
       <c r="G5">
-        <v>5.811111111111111</v>
+        <v>6.365853658536586</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>6.609756097560975</v>
       </c>
       <c r="I5">
-        <v>6.94</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="J5">
-        <v>5.21875</v>
+        <v>6.486328125</v>
       </c>
       <c r="K5">
-        <v>5.976913580246916</v>
+        <v>6.758477096966092</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -644,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.1875</v>
+        <v>5.875</v>
       </c>
       <c r="C6">
-        <v>5.733333333333333</v>
+        <v>5.795918367346939</v>
       </c>
       <c r="D6">
-        <v>5.875</v>
+        <v>5.825</v>
       </c>
       <c r="E6">
-        <v>6.142857142857143</v>
+        <v>6.275</v>
       </c>
       <c r="F6">
-        <v>4.25</v>
+        <v>3.6875</v>
       </c>
       <c r="G6">
-        <v>5.7</v>
+        <v>5.795918367346939</v>
       </c>
       <c r="H6">
-        <v>5.9875</v>
+        <v>6.175</v>
       </c>
       <c r="I6">
-        <v>6.904761904761905</v>
+        <v>7.4</v>
       </c>
       <c r="J6">
-        <v>4.658203125</v>
+        <v>3.8515625</v>
       </c>
       <c r="K6">
-        <v>5.785555555555555</v>
+        <v>5.913681799250313</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -679,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6.3125</v>
+        <v>5.9375</v>
       </c>
       <c r="C7">
-        <v>5.5125</v>
+        <v>5.5</v>
       </c>
       <c r="D7">
-        <v>5.954545454545454</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="E7">
-        <v>5.704545454545454</v>
+        <v>5.791666666666667</v>
       </c>
       <c r="F7">
         <v>3.5625</v>
       </c>
       <c r="G7">
-        <v>5.5375</v>
+        <v>5.488095238095238</v>
       </c>
       <c r="H7">
-        <v>6.397727272727272</v>
+        <v>6.071428571428571</v>
       </c>
       <c r="I7">
-        <v>5.659090909090909</v>
+        <v>5.979166666666667</v>
       </c>
       <c r="J7">
-        <v>4.095703125</v>
+        <v>3.767578125</v>
       </c>
       <c r="K7">
-        <v>5.540703125</v>
+        <v>5.488095238095238</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.3125</v>
+        <v>6.1875</v>
       </c>
       <c r="C8">
-        <v>6.0125</v>
+        <v>5.884615384615385</v>
       </c>
       <c r="D8">
-        <v>6.182926829268292</v>
+        <v>6.060975609756097</v>
       </c>
       <c r="E8">
-        <v>6.282608695652174</v>
+        <v>6.239130434782608</v>
       </c>
       <c r="F8">
-        <v>5.6875</v>
+        <v>4.9375</v>
       </c>
       <c r="G8">
-        <v>6.0375</v>
+        <v>5.858974358974359</v>
       </c>
       <c r="H8">
-        <v>6.25609756097561</v>
+        <v>6.195121951219512</v>
       </c>
       <c r="I8">
-        <v>7.195652173913044</v>
+        <v>7.130434782608695</v>
       </c>
       <c r="J8">
-        <v>6.220703125</v>
+        <v>5.345703125</v>
       </c>
       <c r="K8">
-        <v>6.296953125</v>
+        <v>6.029092702169625</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.375</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="C9">
-        <v>5.826086956521739</v>
+        <v>5.9</v>
       </c>
       <c r="D9">
-        <v>6.194444444444445</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>5.934782608695652</v>
+        <v>6.095238095238095</v>
       </c>
       <c r="F9">
-        <v>4.8125</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="G9">
-        <v>5.836956521739131</v>
+        <v>5.85</v>
       </c>
       <c r="H9">
-        <v>6.5</v>
+        <v>6.159090909090909</v>
       </c>
       <c r="I9">
-        <v>6.260869565217392</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="J9">
-        <v>5.4140625</v>
+        <v>5.666666666666664</v>
       </c>
       <c r="K9">
-        <v>5.97164461247637</v>
+        <v>6.029999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.125</v>
+        <v>5.9375</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="D10">
-        <v>5.947916666666667</v>
+        <v>5.940476190476191</v>
       </c>
       <c r="E10">
-        <v>6.15</v>
+        <v>5.903846153846154</v>
       </c>
       <c r="F10">
-        <v>5.3125</v>
+        <v>4.5625</v>
       </c>
       <c r="G10">
-        <v>5.8625</v>
+        <v>5.619047619047619</v>
       </c>
       <c r="H10">
-        <v>6.052083333333333</v>
+        <v>6.202380952380953</v>
       </c>
       <c r="I10">
-        <v>6.9</v>
+        <v>6.269230769230769</v>
       </c>
       <c r="J10">
-        <v>5.6640625</v>
+        <v>4.767578125</v>
       </c>
       <c r="K10">
-        <v>6.1125</v>
+        <v>5.731292517006802</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6.125</v>
+        <v>5.9375</v>
       </c>
       <c r="C11">
-        <v>5.8875</v>
+        <v>5.738095238095238</v>
       </c>
       <c r="D11">
-        <v>5.865853658536586</v>
+        <v>5.829545454545454</v>
       </c>
       <c r="E11">
-        <v>5.976190476190476</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G11">
-        <v>5.875</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="H11">
-        <v>5.853658536585366</v>
+        <v>6.056818181818182</v>
       </c>
       <c r="I11">
-        <v>6.547619047619047</v>
+        <v>6.289473684210527</v>
       </c>
       <c r="J11">
-        <v>4.8515625</v>
+        <v>3.705078125</v>
       </c>
       <c r="K11">
-        <v>6.046953125000002</v>
+        <v>6.004535147392292</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -854,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6.25</v>
+        <v>6.375</v>
       </c>
       <c r="C12">
-        <v>5.67948717948718</v>
+        <v>5.902173913043478</v>
       </c>
       <c r="D12">
-        <v>5.887755102040816</v>
+        <v>6.1</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>6.230769230769231</v>
       </c>
       <c r="F12">
-        <v>5.125</v>
+        <v>5.75</v>
       </c>
       <c r="G12">
-        <v>5.576923076923077</v>
+        <v>5.902173913043478</v>
       </c>
       <c r="H12">
-        <v>5.928571428571429</v>
+        <v>6.4</v>
       </c>
       <c r="I12">
-        <v>6.545454545454546</v>
+        <v>7.423076923076923</v>
       </c>
       <c r="J12">
-        <v>5.59375</v>
+        <v>6.3515625</v>
       </c>
       <c r="K12">
-        <v>5.637902695595002</v>
+        <v>6.083589319470699</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -889,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6.125</v>
+        <v>5.8125</v>
       </c>
       <c r="C13">
-        <v>6.066666666666666</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="D13">
-        <v>6.036585365853658</v>
+        <v>6.085365853658536</v>
       </c>
       <c r="E13">
+        <v>5.954545454545454</v>
+      </c>
+      <c r="F13">
+        <v>3.875</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>5.375</v>
-      </c>
-      <c r="G13">
-        <v>6.111111111111111</v>
-      </c>
       <c r="H13">
-        <v>6.109756097560975</v>
+        <v>6.292682926829269</v>
       </c>
       <c r="I13">
-        <v>6.543478260869565</v>
+        <v>6.25</v>
       </c>
       <c r="J13">
-        <v>5.7265625</v>
+        <v>4.001953125</v>
       </c>
       <c r="K13">
-        <v>6.413333333333334</v>
+        <v>6.155083829096807</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -924,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6.0625</v>
+        <v>5.9375</v>
       </c>
       <c r="C14">
-        <v>6.040816326530612</v>
+        <v>5.75</v>
       </c>
       <c r="D14">
-        <v>6.1</v>
+        <v>6.081081081081081</v>
       </c>
       <c r="E14">
-        <v>6.088235294117647</v>
+        <v>6.068181818181818</v>
       </c>
       <c r="F14">
-        <v>4.875</v>
+        <v>3.6875</v>
       </c>
       <c r="G14">
-        <v>6.142857142857143</v>
+        <v>5.706521739130435</v>
       </c>
       <c r="H14">
-        <v>6.375</v>
+        <v>6.445945945945946</v>
       </c>
       <c r="I14">
-        <v>6.735294117647059</v>
+        <v>6.840909090909091</v>
       </c>
       <c r="J14">
-        <v>5.173828125</v>
+        <v>3.892578125</v>
       </c>
       <c r="K14">
-        <v>6.424302374010829</v>
+        <v>5.800271739130435</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -959,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5.6875</v>
+        <v>6.125</v>
       </c>
       <c r="C15">
-        <v>5.864864864864865</v>
+        <v>6.1</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="E15">
-        <v>5.934782608695652</v>
+        <v>6.14</v>
       </c>
       <c r="F15">
-        <v>3.8125</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>6.094594594594595</v>
+        <v>6.3125</v>
       </c>
       <c r="H15">
-        <v>6.195652173913044</v>
+        <v>6.607142857142857</v>
       </c>
       <c r="I15">
-        <v>6.608695652173913</v>
+        <v>6.86</v>
       </c>
       <c r="J15">
-        <v>3.876953125</v>
+        <v>5.3515625</v>
       </c>
       <c r="K15">
-        <v>6.252373995617239</v>
+        <v>6.642499999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -994,34 +1003,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6.125</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="C16">
-        <v>6.1625</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D16">
-        <v>6.244186046511628</v>
+        <v>6.236842105263158</v>
       </c>
       <c r="E16">
-        <v>6.282608695652174</v>
+        <v>6.75</v>
       </c>
       <c r="F16">
-        <v>5.375</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="G16">
-        <v>6.475</v>
+        <v>5.958333333333333</v>
       </c>
       <c r="H16">
-        <v>6.744186046511628</v>
+        <v>6.710526315789473</v>
       </c>
       <c r="I16">
-        <v>7.608695652173913</v>
+        <v>9.625</v>
       </c>
       <c r="J16">
-        <v>5.7265625</v>
+        <v>4.972222222222219</v>
       </c>
       <c r="K16">
-        <v>6.860078124999999</v>
+        <v>6.274305555555554</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1029,34 +1038,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>6.3125</v>
+        <v>6.25</v>
       </c>
       <c r="C17">
-        <v>6.033333333333333</v>
+        <v>5.988095238095238</v>
       </c>
       <c r="D17">
-        <v>6.111111111111111</v>
+        <v>6.1</v>
       </c>
       <c r="E17">
-        <v>6.175</v>
+        <v>6.304347826086956</v>
       </c>
       <c r="F17">
-        <v>5.1875</v>
+        <v>4.625</v>
       </c>
       <c r="G17">
-        <v>6.088888888888889</v>
+        <v>6.095238095238095</v>
       </c>
       <c r="H17">
-        <v>6.577777777777778</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="I17">
-        <v>7.125</v>
+        <v>7.108695652173913</v>
       </c>
       <c r="J17">
-        <v>5.720703125</v>
+        <v>5.09375</v>
       </c>
       <c r="K17">
-        <v>6.364444444444441</v>
+        <v>6.33638038548753</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1064,34 +1073,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6.375</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>6.166666666666667</v>
+        <v>6.2</v>
       </c>
       <c r="D18">
-        <v>6.17948717948718</v>
+        <v>6.3125</v>
       </c>
       <c r="E18">
-        <v>6.095238095238095</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>5.75</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="G18">
-        <v>6.440476190476191</v>
+        <v>6.133333333333334</v>
       </c>
       <c r="H18">
-        <v>6.705128205128205</v>
+        <v>6.90625</v>
       </c>
       <c r="I18">
-        <v>6.714285714285714</v>
+        <v>6.928571428571429</v>
       </c>
       <c r="J18">
-        <v>6.3515625</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="K18">
-        <v>6.82936507936508</v>
+        <v>6.553333333333332</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1099,34 +1108,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6.125</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="C19">
-        <v>5.788888888888889</v>
+        <v>5.821428571428571</v>
       </c>
       <c r="D19">
-        <v>5.883720930232558</v>
+        <v>5.922222222222222</v>
       </c>
       <c r="E19">
-        <v>5.880952380952381</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="F19">
-        <v>4.625</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="G19">
-        <v>5.722222222222222</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="H19">
-        <v>5.883720930232558</v>
+        <v>5.977777777777778</v>
       </c>
       <c r="I19">
-        <v>6.428571428571429</v>
+        <v>6.809523809523809</v>
       </c>
       <c r="J19">
-        <v>4.9765625</v>
+        <v>5.228395061728399</v>
       </c>
       <c r="K19">
-        <v>5.836172839506173</v>
+        <v>5.917729591836733</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1134,34 +1143,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6.3125</v>
+        <v>6.5</v>
       </c>
       <c r="C20">
-        <v>6.011904761904762</v>
+        <v>6.197368421052632</v>
       </c>
       <c r="D20">
-        <v>6.142857142857143</v>
+        <v>6.162790697674419</v>
       </c>
       <c r="E20">
-        <v>5.977272727272728</v>
+        <v>6.047619047619047</v>
       </c>
       <c r="F20">
-        <v>5.6875</v>
+        <v>6.125</v>
       </c>
       <c r="G20">
-        <v>6.059523809523809</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="H20">
-        <v>6.511904761904762</v>
+        <v>6.534883720930233</v>
       </c>
       <c r="I20">
-        <v>6.386363636363637</v>
+        <v>6.619047619047619</v>
       </c>
       <c r="J20">
-        <v>6.220703125</v>
+        <v>6.875</v>
       </c>
       <c r="K20">
-        <v>6.318523242630387</v>
+        <v>6.733292936288093</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1169,34 +1178,139 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6.0625</v>
+        <v>5.6875</v>
       </c>
       <c r="C21">
-        <v>6.058139534883721</v>
+        <v>5.925</v>
       </c>
       <c r="D21">
-        <v>6.064102564102564</v>
+        <v>6.095238095238095</v>
       </c>
       <c r="E21">
+        <v>6.307692307692307</v>
+      </c>
+      <c r="F21">
+        <v>4.8125</v>
+      </c>
+      <c r="G21">
+        <v>5.95</v>
+      </c>
+      <c r="H21">
+        <v>6.178571428571429</v>
+      </c>
+      <c r="I21">
+        <v>7.403846153846154</v>
+      </c>
+      <c r="J21">
+        <v>4.876953125</v>
+      </c>
+      <c r="K21">
+        <v>6.146562499999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>6.1</v>
+      </c>
+      <c r="C22">
+        <v>6.116666666666666</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>6.25</v>
+      </c>
+      <c r="F22">
+        <v>5.9</v>
+      </c>
+      <c r="G22">
+        <v>6.25</v>
+      </c>
+      <c r="H22">
+        <v>6.12</v>
+      </c>
+      <c r="I22">
+        <v>7.125</v>
+      </c>
+      <c r="J22">
+        <v>6.229999999999999</v>
+      </c>
+      <c r="K22">
+        <v>6.594305555555557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>6.2</v>
+      </c>
+      <c r="C23">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="D23">
+        <v>5.956521739130435</v>
+      </c>
+      <c r="E23">
+        <v>6.09375</v>
+      </c>
+      <c r="F23">
+        <v>4.6</v>
+      </c>
+      <c r="G23">
+        <v>5.892857142857143</v>
+      </c>
+      <c r="H23">
+        <v>6.108695652173913</v>
+      </c>
+      <c r="I23">
+        <v>7.15625</v>
+      </c>
+      <c r="J23">
+        <v>5.019999999999998</v>
+      </c>
+      <c r="K23">
+        <v>6.04591836734694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>5.9</v>
+      </c>
+      <c r="C24">
+        <v>6.020833333333333</v>
+      </c>
+      <c r="D24">
+        <v>6.111111111111111</v>
+      </c>
+      <c r="E24">
         <v>6.115384615384615</v>
       </c>
-      <c r="F21">
-        <v>5.25</v>
-      </c>
-      <c r="G21">
-        <v>6.104651162790698</v>
-      </c>
-      <c r="H21">
-        <v>6.346153846153846</v>
-      </c>
-      <c r="I21">
-        <v>6.980769230769231</v>
-      </c>
-      <c r="J21">
-        <v>5.548828125</v>
-      </c>
-      <c r="K21">
-        <v>6.399945916711736</v>
+      <c r="F24">
+        <v>5.1</v>
+      </c>
+      <c r="G24">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="H24">
+        <v>6.685185185185185</v>
+      </c>
+      <c r="I24">
+        <v>6.423076923076923</v>
+      </c>
+      <c r="J24">
+        <v>5.279999999999999</v>
+      </c>
+      <c r="K24">
+        <v>6.432508680555553</v>
       </c>
     </row>
   </sheetData>

--- a/voti_contro.xlsx
+++ b/voti_contro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>MediaVoti_P</t>
   </si>
@@ -52,7 +52,7 @@
     <t>BOLOGNA</t>
   </si>
   <si>
-    <t>CREMONESE</t>
+    <t>CAGLIARI</t>
   </si>
   <si>
     <t>EMPOLI</t>
@@ -61,6 +61,12 @@
     <t>FIORENTINA</t>
   </si>
   <si>
+    <t>FROSINONE</t>
+  </si>
+  <si>
+    <t>GENOA</t>
+  </si>
+  <si>
     <t>INTER</t>
   </si>
   <si>
@@ -88,15 +94,9 @@
     <t>SALERNITANA</t>
   </si>
   <si>
-    <t>SAMPDORIA</t>
-  </si>
-  <si>
     <t>SASSUOLO</t>
   </si>
   <si>
-    <t>SPEZIA</t>
-  </si>
-  <si>
     <t>TORINO</t>
   </si>
   <si>
@@ -104,15 +104,6 @@
   </si>
   <si>
     <t>VERONA</t>
-  </si>
-  <si>
-    <t>CAGLIARI</t>
-  </si>
-  <si>
-    <t>FROSINONE</t>
-  </si>
-  <si>
-    <t>GENOA</t>
   </si>
 </sst>
 </file>
@@ -470,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,34 +504,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5.6875</v>
+        <v>6.375</v>
       </c>
       <c r="C2">
-        <v>5.75</v>
+        <v>5.910256410256411</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>6.095744680851064</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="F2">
-        <v>2.9375</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5.785714285714286</v>
+        <v>5.910256410256411</v>
       </c>
       <c r="H2">
-        <v>6.425</v>
+        <v>6.340425531914893</v>
       </c>
       <c r="I2">
-        <v>6.659090909090909</v>
+        <v>7.533333333333333</v>
       </c>
       <c r="J2">
-        <v>3.001953125</v>
+        <v>5.6015625</v>
       </c>
       <c r="K2">
-        <v>5.879464285714286</v>
+        <v>6.096975673898749</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +539,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5.6875</v>
+        <v>6.1875</v>
       </c>
       <c r="C3">
-        <v>5.780487804878049</v>
+        <v>5.719512195121951</v>
       </c>
       <c r="D3">
-        <v>5.930232558139535</v>
+        <v>6.035714285714286</v>
       </c>
       <c r="E3">
-        <v>5.96</v>
+        <v>5.891304347826087</v>
       </c>
       <c r="F3">
-        <v>4.0625</v>
+        <v>4.9375</v>
       </c>
       <c r="G3">
-        <v>5.719512195121951</v>
+        <v>5.524390243902439</v>
       </c>
       <c r="H3">
-        <v>6.069767441860465</v>
+        <v>6.226190476190476</v>
       </c>
       <c r="I3">
-        <v>6.68</v>
+        <v>6.347826086956522</v>
       </c>
       <c r="J3">
-        <v>4.126953125</v>
+        <v>5.345703125</v>
       </c>
       <c r="K3">
-        <v>5.828970850684116</v>
+        <v>5.603361094586558</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +574,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6.166666666666667</v>
+        <v>6.4375</v>
       </c>
       <c r="C4">
-        <v>6.066666666666666</v>
+        <v>6.013888888888889</v>
       </c>
       <c r="D4">
-        <v>6.205882352941177</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="E4">
-        <v>6.285714285714286</v>
+        <v>6.104166666666667</v>
       </c>
       <c r="F4">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>6.333333333333333</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="H4">
-        <v>6.911764705882353</v>
+        <v>6.011111111111111</v>
       </c>
       <c r="I4">
-        <v>7.5</v>
+        <v>6.875</v>
       </c>
       <c r="J4">
-        <v>4.888888888888889</v>
+        <v>6.673828125</v>
       </c>
       <c r="K4">
-        <v>6.635555555555556</v>
+        <v>6.566068672839508</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +609,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.4375</v>
+        <v>6.3125</v>
       </c>
       <c r="C5">
-        <v>6.170731707317073</v>
+        <v>5.9875</v>
       </c>
       <c r="D5">
-        <v>6.134146341463414</v>
+        <v>6.1125</v>
       </c>
       <c r="E5">
-        <v>6.104166666666667</v>
+        <v>6.113636363636363</v>
       </c>
       <c r="F5">
-        <v>5.8125</v>
+        <v>5.5625</v>
       </c>
       <c r="G5">
-        <v>6.365853658536586</v>
+        <v>5.9375</v>
       </c>
       <c r="H5">
-        <v>6.609756097560975</v>
+        <v>6.3</v>
       </c>
       <c r="I5">
-        <v>6.833333333333333</v>
+        <v>7.113636363636363</v>
       </c>
       <c r="J5">
-        <v>6.486328125</v>
+        <v>6.095703125</v>
       </c>
       <c r="K5">
-        <v>6.758477096966092</v>
+        <v>6.178203125</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +644,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5.875</v>
+        <v>6.4375</v>
       </c>
       <c r="C6">
-        <v>5.795918367346939</v>
+        <v>5.8125</v>
       </c>
       <c r="D6">
-        <v>5.825</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="E6">
-        <v>6.275</v>
+        <v>5.710526315789473</v>
       </c>
       <c r="F6">
-        <v>3.6875</v>
+        <v>5.6875</v>
       </c>
       <c r="G6">
-        <v>5.795918367346939</v>
+        <v>5.8375</v>
       </c>
       <c r="H6">
-        <v>6.175</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="I6">
-        <v>7.4</v>
+        <v>5.973684210526316</v>
       </c>
       <c r="J6">
-        <v>3.8515625</v>
+        <v>6.361328125</v>
       </c>
       <c r="K6">
-        <v>5.913681799250313</v>
+        <v>5.964453125</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +679,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.9375</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.15</v>
       </c>
       <c r="D7">
-        <v>5.833333333333333</v>
+        <v>6.159090909090909</v>
       </c>
       <c r="E7">
-        <v>5.791666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="F7">
-        <v>3.5625</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="G7">
-        <v>5.488095238095238</v>
+        <v>6.3125</v>
       </c>
       <c r="H7">
-        <v>6.071428571428571</v>
+        <v>6.465909090909091</v>
       </c>
       <c r="I7">
-        <v>5.979166666666667</v>
+        <v>7.789473684210527</v>
       </c>
       <c r="J7">
-        <v>3.767578125</v>
+        <v>5.57098765432099</v>
       </c>
       <c r="K7">
-        <v>5.488095238095238</v>
+        <v>6.686250000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +714,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.1875</v>
+        <v>5.8125</v>
       </c>
       <c r="C8">
-        <v>5.884615384615385</v>
+        <v>6.0625</v>
       </c>
       <c r="D8">
-        <v>6.060975609756097</v>
+        <v>5.891304347826087</v>
       </c>
       <c r="E8">
-        <v>6.239130434782608</v>
+        <v>6.113636363636363</v>
       </c>
       <c r="F8">
-        <v>4.9375</v>
+        <v>4.8125</v>
       </c>
       <c r="G8">
-        <v>5.858974358974359</v>
+        <v>6.15</v>
       </c>
       <c r="H8">
-        <v>6.195121951219512</v>
+        <v>5.891304347826087</v>
       </c>
       <c r="I8">
-        <v>7.130434782608695</v>
+        <v>6.909090909090909</v>
       </c>
       <c r="J8">
-        <v>5.345703125</v>
+        <v>4.939453125</v>
       </c>
       <c r="K8">
-        <v>6.029092702169625</v>
+        <v>6.448828125</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +749,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.333333333333333</v>
+        <v>6.375</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5.858695652173913</v>
       </c>
       <c r="E9">
-        <v>6.095238095238095</v>
+        <v>5.825</v>
       </c>
       <c r="F9">
-        <v>5.111111111111111</v>
+        <v>4.25</v>
       </c>
       <c r="G9">
-        <v>5.85</v>
+        <v>5.45945945945946</v>
       </c>
       <c r="H9">
-        <v>6.159090909090909</v>
+        <v>5.815217391304348</v>
       </c>
       <c r="I9">
-        <v>6.857142857142857</v>
+        <v>5.95</v>
       </c>
       <c r="J9">
-        <v>5.666666666666664</v>
+        <v>4.8515625</v>
       </c>
       <c r="K9">
-        <v>6.029999999999999</v>
+        <v>5.45945945945946</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +784,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>5.9375</v>
+        <v>6.1875</v>
       </c>
       <c r="C10">
-        <v>5.785714285714286</v>
+        <v>5.869047619047619</v>
       </c>
       <c r="D10">
-        <v>5.940476190476191</v>
+        <v>5.9875</v>
       </c>
       <c r="E10">
-        <v>5.903846153846154</v>
+        <v>5.973684210526316</v>
       </c>
       <c r="F10">
-        <v>4.5625</v>
+        <v>5.0625</v>
       </c>
       <c r="G10">
-        <v>5.619047619047619</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="H10">
-        <v>6.202380952380953</v>
+        <v>6.275</v>
       </c>
       <c r="I10">
-        <v>6.269230769230769</v>
+        <v>6.157894736842105</v>
       </c>
       <c r="J10">
-        <v>4.767578125</v>
+        <v>5.470703125</v>
       </c>
       <c r="K10">
-        <v>5.731292517006802</v>
+        <v>6.077026643990933</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +819,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5.9375</v>
+        <v>6.0625</v>
       </c>
       <c r="C11">
-        <v>5.738095238095238</v>
+        <v>5.875</v>
       </c>
       <c r="D11">
-        <v>5.829545454545454</v>
+        <v>5.869047619047619</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>4.8125</v>
       </c>
       <c r="G11">
-        <v>5.916666666666667</v>
+        <v>5.725</v>
       </c>
       <c r="H11">
-        <v>6.056818181818182</v>
+        <v>6.023809523809524</v>
       </c>
       <c r="I11">
-        <v>6.289473684210527</v>
+        <v>6.380952380952381</v>
       </c>
       <c r="J11">
-        <v>3.705078125</v>
+        <v>5.111328125</v>
       </c>
       <c r="K11">
-        <v>6.004535147392292</v>
+        <v>5.8890625</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +854,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6.375</v>
+        <v>5.875</v>
       </c>
       <c r="C12">
-        <v>5.902173913043478</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="D12">
-        <v>6.1</v>
+        <v>6.075</v>
       </c>
       <c r="E12">
-        <v>6.230769230769231</v>
+        <v>6.225</v>
       </c>
       <c r="F12">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="G12">
-        <v>5.902173913043478</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="H12">
-        <v>6.4</v>
+        <v>6.2375</v>
       </c>
       <c r="I12">
-        <v>7.423076923076923</v>
+        <v>7.075</v>
       </c>
       <c r="J12">
-        <v>6.3515625</v>
+        <v>4.9140625</v>
       </c>
       <c r="K12">
-        <v>6.083589319470699</v>
+        <v>6.459876543209879</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +889,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5.8125</v>
+        <v>6.25</v>
       </c>
       <c r="C13">
-        <v>5.86046511627907</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="D13">
-        <v>6.085365853658536</v>
+        <v>5.90625</v>
       </c>
       <c r="E13">
-        <v>5.954545454545454</v>
+        <v>5.96</v>
       </c>
       <c r="F13">
-        <v>3.875</v>
+        <v>4.125</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5.722222222222222</v>
       </c>
       <c r="H13">
-        <v>6.292682926829269</v>
+        <v>6.03125</v>
       </c>
       <c r="I13">
-        <v>6.25</v>
+        <v>6.58</v>
       </c>
       <c r="J13">
-        <v>4.001953125</v>
+        <v>4.59375</v>
       </c>
       <c r="K13">
-        <v>6.155083829096807</v>
+        <v>5.789737654320988</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +924,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>6.277777777777778</v>
+      </c>
+      <c r="C14">
+        <v>6.125</v>
+      </c>
+      <c r="D14">
+        <v>6.102564102564102</v>
+      </c>
+      <c r="E14">
         <v>5.9375</v>
       </c>
-      <c r="C14">
-        <v>5.75</v>
-      </c>
-      <c r="D14">
-        <v>6.081081081081081</v>
-      </c>
-      <c r="E14">
-        <v>6.068181818181818</v>
-      </c>
       <c r="F14">
-        <v>3.6875</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="G14">
-        <v>5.706521739130435</v>
+        <v>6.2625</v>
       </c>
       <c r="H14">
-        <v>6.445945945945946</v>
+        <v>6.384615384615385</v>
       </c>
       <c r="I14">
-        <v>6.840909090909091</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="J14">
-        <v>3.892578125</v>
+        <v>6.330246913580244</v>
       </c>
       <c r="K14">
-        <v>5.800271739130435</v>
+        <v>6.6140625</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +959,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6.125</v>
+        <v>6.4375</v>
       </c>
       <c r="C15">
-        <v>6.1</v>
+        <v>6.133333333333334</v>
       </c>
       <c r="D15">
-        <v>6.142857142857143</v>
+        <v>6.25</v>
       </c>
       <c r="E15">
-        <v>6.14</v>
+        <v>6.35</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>5.9375</v>
       </c>
       <c r="G15">
-        <v>6.3125</v>
+        <v>6.288888888888889</v>
       </c>
       <c r="H15">
-        <v>6.607142857142857</v>
+        <v>6.5</v>
       </c>
       <c r="I15">
-        <v>6.86</v>
+        <v>7.125</v>
       </c>
       <c r="J15">
-        <v>5.3515625</v>
+        <v>6.611328125</v>
       </c>
       <c r="K15">
-        <v>6.642499999999998</v>
+        <v>6.647777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,34 +994,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5.833333333333333</v>
+        <v>6.3125</v>
       </c>
       <c r="C16">
-        <v>6.083333333333333</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="D16">
-        <v>6.236842105263158</v>
+        <v>6.109756097560975</v>
       </c>
       <c r="E16">
-        <v>6.75</v>
+        <v>5.973684210526316</v>
       </c>
       <c r="F16">
-        <v>4.833333333333333</v>
+        <v>5.1875</v>
       </c>
       <c r="G16">
-        <v>5.958333333333333</v>
+        <v>5.875</v>
       </c>
       <c r="H16">
-        <v>6.710526315789473</v>
+        <v>6.280487804878049</v>
       </c>
       <c r="I16">
-        <v>9.625</v>
+        <v>6.105263157894737</v>
       </c>
       <c r="J16">
-        <v>4.972222222222219</v>
+        <v>5.720703125</v>
       </c>
       <c r="K16">
-        <v>6.274305555555554</v>
+        <v>6.084876543209877</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1038,34 +1029,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>5.988095238095238</v>
+        <v>6.013513513513513</v>
       </c>
       <c r="D17">
-        <v>6.1</v>
+        <v>6.079545454545454</v>
       </c>
       <c r="E17">
-        <v>6.304347826086956</v>
+        <v>6.192307692307693</v>
       </c>
       <c r="F17">
-        <v>4.625</v>
+        <v>4.6875</v>
       </c>
       <c r="G17">
-        <v>6.095238095238095</v>
+        <v>6.108108108108108</v>
       </c>
       <c r="H17">
-        <v>6.555555555555555</v>
+        <v>6.613636363636363</v>
       </c>
       <c r="I17">
-        <v>7.108695652173913</v>
+        <v>7.038461538461538</v>
       </c>
       <c r="J17">
-        <v>5.09375</v>
+        <v>4.9375</v>
       </c>
       <c r="K17">
-        <v>6.33638038548753</v>
+        <v>6.368334550766984</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1073,34 +1064,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>6.4375</v>
       </c>
       <c r="C18">
-        <v>6.2</v>
+        <v>5.829268292682927</v>
       </c>
       <c r="D18">
-        <v>6.3125</v>
+        <v>6.034090909090909</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="F18">
-        <v>5.666666666666667</v>
+        <v>4.9375</v>
       </c>
       <c r="G18">
-        <v>6.133333333333334</v>
+        <v>5.853658536585366</v>
       </c>
       <c r="H18">
-        <v>6.90625</v>
+        <v>6.238636363636363</v>
       </c>
       <c r="I18">
-        <v>6.928571428571429</v>
+        <v>7.547619047619047</v>
       </c>
       <c r="J18">
-        <v>5.916666666666667</v>
+        <v>5.611328125</v>
       </c>
       <c r="K18">
-        <v>6.553333333333332</v>
+        <v>5.990184414039264</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1108,34 +1099,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6.111111111111111</v>
+        <v>5.9375</v>
       </c>
       <c r="C19">
-        <v>5.821428571428571</v>
+        <v>5.845238095238095</v>
       </c>
       <c r="D19">
-        <v>5.922222222222222</v>
+        <v>5.782608695652174</v>
       </c>
       <c r="E19">
-        <v>6.142857142857143</v>
+        <v>5.789473684210527</v>
       </c>
       <c r="F19">
-        <v>4.888888888888889</v>
+        <v>4.8125</v>
       </c>
       <c r="G19">
-        <v>5.785714285714286</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="H19">
-        <v>5.977777777777778</v>
+        <v>5.913043478260869</v>
       </c>
       <c r="I19">
-        <v>6.809523809523809</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="J19">
-        <v>5.228395061728399</v>
+        <v>5.017578125</v>
       </c>
       <c r="K19">
-        <v>5.917729591836733</v>
+        <v>5.97923752834467</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1143,34 +1134,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>6.197368421052632</v>
+        <v>5.817073170731708</v>
       </c>
       <c r="D20">
-        <v>6.162790697674419</v>
+        <v>5.906976744186046</v>
       </c>
       <c r="E20">
-        <v>6.047619047619047</v>
+        <v>6.304347826086956</v>
       </c>
       <c r="F20">
-        <v>6.125</v>
+        <v>4.5</v>
       </c>
       <c r="G20">
-        <v>6.315789473684211</v>
+        <v>5.975609756097561</v>
       </c>
       <c r="H20">
-        <v>6.534883720930233</v>
+        <v>6.27906976744186</v>
       </c>
       <c r="I20">
-        <v>6.619047619047619</v>
+        <v>7.369565217391305</v>
       </c>
       <c r="J20">
-        <v>6.875</v>
+        <v>4.75</v>
       </c>
       <c r="K20">
-        <v>6.733292936288093</v>
+        <v>6.105145746579416</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1178,139 +1169,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5.6875</v>
+        <v>6.3125</v>
       </c>
       <c r="C21">
-        <v>5.925</v>
+        <v>5.883720930232558</v>
       </c>
       <c r="D21">
-        <v>6.095238095238095</v>
+        <v>6.1875</v>
       </c>
       <c r="E21">
-        <v>6.307692307692307</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="F21">
-        <v>4.8125</v>
+        <v>5.5</v>
       </c>
       <c r="G21">
-        <v>5.95</v>
+        <v>5.976744186046512</v>
       </c>
       <c r="H21">
-        <v>6.178571428571429</v>
+        <v>6.55</v>
       </c>
       <c r="I21">
-        <v>7.403846153846154</v>
+        <v>6.5</v>
       </c>
       <c r="J21">
-        <v>4.876953125</v>
+        <v>6.033203125</v>
       </c>
       <c r="K21">
-        <v>6.146562499999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>6.1</v>
-      </c>
-      <c r="C22">
-        <v>6.116666666666666</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>6.25</v>
-      </c>
-      <c r="F22">
-        <v>5.9</v>
-      </c>
-      <c r="G22">
-        <v>6.25</v>
-      </c>
-      <c r="H22">
-        <v>6.12</v>
-      </c>
-      <c r="I22">
-        <v>7.125</v>
-      </c>
-      <c r="J22">
-        <v>6.229999999999999</v>
-      </c>
-      <c r="K22">
-        <v>6.594305555555557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>6.2</v>
-      </c>
-      <c r="C23">
-        <v>5.857142857142857</v>
-      </c>
-      <c r="D23">
-        <v>5.956521739130435</v>
-      </c>
-      <c r="E23">
-        <v>6.09375</v>
-      </c>
-      <c r="F23">
-        <v>4.6</v>
-      </c>
-      <c r="G23">
-        <v>5.892857142857143</v>
-      </c>
-      <c r="H23">
-        <v>6.108695652173913</v>
-      </c>
-      <c r="I23">
-        <v>7.15625</v>
-      </c>
-      <c r="J23">
-        <v>5.019999999999998</v>
-      </c>
-      <c r="K23">
-        <v>6.04591836734694</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>5.9</v>
-      </c>
-      <c r="C24">
-        <v>6.020833333333333</v>
-      </c>
-      <c r="D24">
-        <v>6.111111111111111</v>
-      </c>
-      <c r="E24">
-        <v>6.115384615384615</v>
-      </c>
-      <c r="F24">
-        <v>5.1</v>
-      </c>
-      <c r="G24">
-        <v>6.166666666666667</v>
-      </c>
-      <c r="H24">
-        <v>6.685185185185185</v>
-      </c>
-      <c r="I24">
-        <v>6.423076923076923</v>
-      </c>
-      <c r="J24">
-        <v>5.279999999999999</v>
-      </c>
-      <c r="K24">
-        <v>6.432508680555553</v>
+        <v>6.146295294753921</v>
       </c>
     </row>
   </sheetData>

--- a/voti_contro.xlsx
+++ b/voti_contro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>MediaVoti_P</t>
   </si>
@@ -52,67 +52,70 @@
     <t>BOLOGNA</t>
   </si>
   <si>
+    <t>CAGLIARI</t>
+  </si>
+  <si>
+    <t>EMPOLI</t>
+  </si>
+  <si>
+    <t>FIORENTINA</t>
+  </si>
+  <si>
+    <t>GENOA</t>
+  </si>
+  <si>
+    <t>INTER</t>
+  </si>
+  <si>
+    <t>JUVENTUS</t>
+  </si>
+  <si>
+    <t>LAZIO</t>
+  </si>
+  <si>
+    <t>MILAN</t>
+  </si>
+  <si>
+    <t>NAPOLI</t>
+  </si>
+  <si>
+    <t>ROMA</t>
+  </si>
+  <si>
+    <t>SALERNITANA</t>
+  </si>
+  <si>
+    <t>SAMPDORIA</t>
+  </si>
+  <si>
+    <t>SASSUOLO</t>
+  </si>
+  <si>
+    <t>SPEZIA</t>
+  </si>
+  <si>
+    <t>TORINO</t>
+  </si>
+  <si>
+    <t>UDINESE</t>
+  </si>
+  <si>
+    <t>VENEZIA</t>
+  </si>
+  <si>
+    <t>VERONA</t>
+  </si>
+  <si>
     <t>CREMONESE</t>
   </si>
   <si>
-    <t>EMPOLI</t>
-  </si>
-  <si>
-    <t>FIORENTINA</t>
-  </si>
-  <si>
-    <t>INTER</t>
-  </si>
-  <si>
-    <t>JUVENTUS</t>
-  </si>
-  <si>
-    <t>LAZIO</t>
-  </si>
-  <si>
     <t>LECCE</t>
   </si>
   <si>
-    <t>MILAN</t>
-  </si>
-  <si>
     <t>MONZA</t>
   </si>
   <si>
-    <t>NAPOLI</t>
-  </si>
-  <si>
-    <t>ROMA</t>
-  </si>
-  <si>
-    <t>SALERNITANA</t>
-  </si>
-  <si>
-    <t>SAMPDORIA</t>
-  </si>
-  <si>
-    <t>SASSUOLO</t>
-  </si>
-  <si>
-    <t>SPEZIA</t>
-  </si>
-  <si>
-    <t>TORINO</t>
-  </si>
-  <si>
-    <t>UDINESE</t>
-  </si>
-  <si>
-    <t>VERONA</t>
-  </si>
-  <si>
-    <t>CAGLIARI</t>
-  </si>
-  <si>
     <t>FROSINONE</t>
-  </si>
-  <si>
-    <t>GENOA</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,34 +516,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5.6875</v>
+        <v>6.183168316831683</v>
       </c>
       <c r="C2">
-        <v>5.75</v>
+        <v>5.836893203883495</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>6.025714285714286</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>6.080827067669173</v>
       </c>
       <c r="F2">
-        <v>2.9375</v>
+        <v>4.440594059405941</v>
       </c>
       <c r="G2">
-        <v>5.785714285714286</v>
+        <v>5.836893203883495</v>
       </c>
       <c r="H2">
-        <v>6.425</v>
+        <v>6.236190476190476</v>
       </c>
       <c r="I2">
-        <v>6.659090909090909</v>
+        <v>6.75187969924812</v>
       </c>
       <c r="J2">
-        <v>3.001953125</v>
+        <v>4.84474561317518</v>
       </c>
       <c r="K2">
-        <v>5.879464285714286</v>
+        <v>5.977865020265813</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +551,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5.6875</v>
+        <v>6.014705882352941</v>
       </c>
       <c r="C3">
-        <v>5.780487804878049</v>
+        <v>5.878585086042065</v>
       </c>
       <c r="D3">
-        <v>5.930232558139535</v>
+        <v>5.984644913627639</v>
       </c>
       <c r="E3">
-        <v>5.96</v>
+        <v>6.010273972602739</v>
       </c>
       <c r="F3">
-        <v>4.0625</v>
+        <v>4.681372549019608</v>
       </c>
       <c r="G3">
-        <v>5.719512195121951</v>
+        <v>5.880497131931167</v>
       </c>
       <c r="H3">
-        <v>6.069767441860465</v>
+        <v>6.173704414587332</v>
       </c>
       <c r="I3">
-        <v>6.68</v>
+        <v>6.662671232876712</v>
       </c>
       <c r="J3">
-        <v>4.126953125</v>
+        <v>4.942510092272203</v>
       </c>
       <c r="K3">
-        <v>5.828970850684116</v>
+        <v>6.046806737128422</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +586,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6.166666666666667</v>
+        <v>6.1953125</v>
       </c>
       <c r="C4">
-        <v>6.066666666666666</v>
+        <v>6.050156739811912</v>
       </c>
       <c r="D4">
-        <v>6.205882352941177</v>
+        <v>6.133333333333334</v>
       </c>
       <c r="E4">
-        <v>6.285714285714286</v>
+        <v>6.286516853932584</v>
       </c>
       <c r="F4">
-        <v>4.5</v>
+        <v>5.3671875</v>
       </c>
       <c r="G4">
-        <v>6.333333333333333</v>
+        <v>6.211598746081505</v>
       </c>
       <c r="H4">
-        <v>6.911764705882353</v>
+        <v>6.431746031746032</v>
       </c>
       <c r="I4">
-        <v>7.5</v>
+        <v>7.292134831460674</v>
       </c>
       <c r="J4">
-        <v>4.888888888888889</v>
+        <v>5.782745361328125</v>
       </c>
       <c r="K4">
-        <v>6.635555555555556</v>
+        <v>6.500474150214716</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +621,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.4375</v>
+        <v>6.132352941176471</v>
       </c>
       <c r="C5">
-        <v>6.170731707317073</v>
+        <v>5.974334600760456</v>
       </c>
       <c r="D5">
-        <v>6.134146341463414</v>
+        <v>6.050682261208577</v>
       </c>
       <c r="E5">
-        <v>6.104166666666667</v>
+        <v>6.161921708185053</v>
       </c>
       <c r="F5">
-        <v>5.8125</v>
+        <v>5.078431372549019</v>
       </c>
       <c r="G5">
-        <v>6.365853658536586</v>
+        <v>6.010456273764259</v>
       </c>
       <c r="H5">
-        <v>6.609756097560975</v>
+        <v>6.267056530214425</v>
       </c>
       <c r="I5">
-        <v>6.833333333333333</v>
+        <v>7.090747330960854</v>
       </c>
       <c r="J5">
-        <v>6.486328125</v>
+        <v>5.436454728950405</v>
       </c>
       <c r="K5">
-        <v>6.758477096966092</v>
+        <v>6.241536580693662</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +656,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5.875</v>
+        <v>6.181372549019608</v>
       </c>
       <c r="C6">
-        <v>5.795918367346939</v>
+        <v>5.850282485875706</v>
       </c>
       <c r="D6">
-        <v>5.825</v>
+        <v>5.954365079365079</v>
       </c>
       <c r="E6">
-        <v>6.275</v>
+        <v>6.037953795379538</v>
       </c>
       <c r="F6">
-        <v>3.6875</v>
+        <v>4.911764705882353</v>
       </c>
       <c r="G6">
-        <v>5.795918367346939</v>
+        <v>5.842749529190207</v>
       </c>
       <c r="H6">
-        <v>6.175</v>
+        <v>6.137896825396825</v>
       </c>
       <c r="I6">
-        <v>7.4</v>
+        <v>6.686468646864687</v>
       </c>
       <c r="J6">
-        <v>3.8515625</v>
+        <v>5.314242118415995</v>
       </c>
       <c r="K6">
-        <v>5.913681799250313</v>
+        <v>5.991669060614764</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +691,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.9375</v>
+        <v>6.158730158730159</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.003086419753086</v>
       </c>
       <c r="D7">
-        <v>5.833333333333333</v>
+        <v>6.051724137931035</v>
       </c>
       <c r="E7">
-        <v>5.791666666666667</v>
+        <v>6.084239130434782</v>
       </c>
       <c r="F7">
-        <v>3.5625</v>
+        <v>5.325396825396825</v>
       </c>
       <c r="G7">
-        <v>5.488095238095238</v>
+        <v>6.101851851851852</v>
       </c>
       <c r="H7">
-        <v>6.071428571428571</v>
+        <v>6.315047021943574</v>
       </c>
       <c r="I7">
-        <v>5.979166666666667</v>
+        <v>6.760869565217392</v>
       </c>
       <c r="J7">
-        <v>3.767578125</v>
+        <v>5.707042076089695</v>
       </c>
       <c r="K7">
-        <v>5.488095238095238</v>
+        <v>6.354171429660114</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +726,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.1875</v>
+        <v>6.325</v>
       </c>
       <c r="C8">
-        <v>5.884615384615385</v>
+        <v>5.644249512670565</v>
       </c>
       <c r="D8">
-        <v>6.060975609756097</v>
+        <v>5.872159090909091</v>
       </c>
       <c r="E8">
-        <v>6.239130434782608</v>
+        <v>5.885608856088561</v>
       </c>
       <c r="F8">
-        <v>4.9375</v>
+        <v>4.26</v>
       </c>
       <c r="G8">
-        <v>5.858974358974359</v>
+        <v>5.615984405458089</v>
       </c>
       <c r="H8">
-        <v>6.195121951219512</v>
+        <v>6.045454545454546</v>
       </c>
       <c r="I8">
-        <v>7.130434782608695</v>
+        <v>6.247232472324724</v>
       </c>
       <c r="J8">
-        <v>5.345703125</v>
+        <v>4.806562499999997</v>
       </c>
       <c r="K8">
-        <v>6.029092702169625</v>
+        <v>5.66245074457858</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +761,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.333333333333333</v>
+        <v>6.150485436893204</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>5.883079847908745</v>
       </c>
       <c r="D9">
+        <v>5.991159135559921</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>6.095238095238095</v>
-      </c>
       <c r="F9">
-        <v>5.111111111111111</v>
+        <v>4.766990291262136</v>
       </c>
       <c r="G9">
-        <v>5.85</v>
+        <v>5.872623574144487</v>
       </c>
       <c r="H9">
-        <v>6.159090909090909</v>
+        <v>6.131630648330059</v>
       </c>
       <c r="I9">
-        <v>6.857142857142857</v>
+        <v>6.436363636363637</v>
       </c>
       <c r="J9">
-        <v>5.666666666666664</v>
+        <v>5.141177302290505</v>
       </c>
       <c r="K9">
-        <v>6.029999999999999</v>
+        <v>6.041768621058565</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +796,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>5.9375</v>
+        <v>6.173267326732673</v>
       </c>
       <c r="C10">
-        <v>5.785714285714286</v>
+        <v>5.803001876172608</v>
       </c>
       <c r="D10">
-        <v>5.940476190476191</v>
+        <v>5.986193293885601</v>
       </c>
       <c r="E10">
-        <v>5.903846153846154</v>
+        <v>6.030249110320285</v>
       </c>
       <c r="F10">
-        <v>4.5625</v>
+        <v>4.574257425742574</v>
       </c>
       <c r="G10">
-        <v>5.619047619047619</v>
+        <v>5.793621013133208</v>
       </c>
       <c r="H10">
-        <v>6.202380952380953</v>
+        <v>6.144970414201183</v>
       </c>
       <c r="I10">
-        <v>6.269230769230769</v>
+        <v>6.681494661921708</v>
       </c>
       <c r="J10">
-        <v>4.767578125</v>
+        <v>4.969218704048626</v>
       </c>
       <c r="K10">
-        <v>5.731292517006802</v>
+        <v>5.915276550658422</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +831,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5.9375</v>
+        <v>6.161764705882353</v>
       </c>
       <c r="C11">
-        <v>5.738095238095238</v>
+        <v>5.806666666666667</v>
       </c>
       <c r="D11">
-        <v>5.829545454545454</v>
+        <v>5.98443579766537</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5.972413793103448</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>4.387254901960785</v>
       </c>
       <c r="G11">
-        <v>5.916666666666667</v>
+        <v>5.786666666666667</v>
       </c>
       <c r="H11">
-        <v>6.056818181818182</v>
+        <v>6.182879377431907</v>
       </c>
       <c r="I11">
-        <v>6.289473684210527</v>
+        <v>6.41896551724138</v>
       </c>
       <c r="J11">
-        <v>3.705078125</v>
+        <v>4.771662341407152</v>
       </c>
       <c r="K11">
-        <v>6.004535147392292</v>
+        <v>5.910355555555556</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +866,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6.375</v>
+        <v>6.09313725490196</v>
       </c>
       <c r="C12">
-        <v>5.902173913043478</v>
+        <v>5.790291262135923</v>
       </c>
       <c r="D12">
-        <v>6.1</v>
+        <v>5.908653846153846</v>
       </c>
       <c r="E12">
-        <v>6.230769230769231</v>
+        <v>5.95925925925926</v>
       </c>
       <c r="F12">
-        <v>5.75</v>
+        <v>4.401960784313726</v>
       </c>
       <c r="G12">
-        <v>5.902173913043478</v>
+        <v>5.77378640776699</v>
       </c>
       <c r="H12">
-        <v>6.4</v>
+        <v>6.025</v>
       </c>
       <c r="I12">
-        <v>7.423076923076923</v>
+        <v>6.425925925925926</v>
       </c>
       <c r="J12">
-        <v>6.3515625</v>
+        <v>4.72615099961553</v>
       </c>
       <c r="K12">
-        <v>6.083589319470699</v>
+        <v>5.888493731737202</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +901,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5.8125</v>
+        <v>6.254901960784314</v>
       </c>
       <c r="C13">
-        <v>5.86046511627907</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="D13">
-        <v>6.085365853658536</v>
+        <v>6.031372549019608</v>
       </c>
       <c r="E13">
-        <v>5.954545454545454</v>
+        <v>6.036630036630036</v>
       </c>
       <c r="F13">
-        <v>3.875</v>
+        <v>4.784313725490196</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5.904356060606061</v>
       </c>
       <c r="H13">
-        <v>6.292682926829269</v>
+        <v>6.229411764705882</v>
       </c>
       <c r="I13">
-        <v>6.25</v>
+        <v>6.454212454212454</v>
       </c>
       <c r="J13">
-        <v>4.001953125</v>
+        <v>5.257977700884278</v>
       </c>
       <c r="K13">
-        <v>6.155083829096807</v>
+        <v>6.07498323074495</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +936,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>5.9375</v>
+        <v>6.079207920792079</v>
       </c>
       <c r="C14">
-        <v>5.75</v>
+        <v>6.035508637236084</v>
       </c>
       <c r="D14">
-        <v>6.081081081081081</v>
+        <v>6.091682419659735</v>
       </c>
       <c r="E14">
-        <v>6.068181818181818</v>
+        <v>6.225165562913907</v>
       </c>
       <c r="F14">
-        <v>3.6875</v>
+        <v>5.074257425742574</v>
       </c>
       <c r="G14">
-        <v>5.706521739130435</v>
+        <v>6.152591170825336</v>
       </c>
       <c r="H14">
-        <v>6.445945945945946</v>
+        <v>6.438563327032136</v>
       </c>
       <c r="I14">
-        <v>6.840909090909091</v>
+        <v>7.253311258278146</v>
       </c>
       <c r="J14">
-        <v>3.892578125</v>
+        <v>5.386800313694736</v>
       </c>
       <c r="K14">
-        <v>5.800271739130435</v>
+        <v>6.42985308041158</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +971,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6.125</v>
+        <v>6.14935064935065</v>
       </c>
       <c r="C15">
-        <v>6.1</v>
+        <v>6.065104166666667</v>
       </c>
       <c r="D15">
-        <v>6.142857142857143</v>
+        <v>6.175925925925926</v>
       </c>
       <c r="E15">
-        <v>6.14</v>
+        <v>6.16589861751152</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>5.344155844155845</v>
       </c>
       <c r="G15">
-        <v>6.3125</v>
+        <v>6.21875</v>
       </c>
       <c r="H15">
-        <v>6.607142857142857</v>
+        <v>6.559523809523809</v>
       </c>
       <c r="I15">
-        <v>6.86</v>
+        <v>6.972350230414746</v>
       </c>
       <c r="J15">
-        <v>5.3515625</v>
+        <v>5.717321639399559</v>
       </c>
       <c r="K15">
-        <v>6.642499999999998</v>
+        <v>6.519697401258682</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,34 +1006,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5.833333333333333</v>
+        <v>6.24</v>
       </c>
       <c r="C16">
-        <v>6.083333333333333</v>
+        <v>5.900763358778626</v>
       </c>
       <c r="D16">
-        <v>6.236842105263158</v>
+        <v>6.028846153846154</v>
       </c>
       <c r="E16">
-        <v>6.75</v>
+        <v>6.194055944055944</v>
       </c>
       <c r="F16">
-        <v>4.833333333333333</v>
+        <v>4.9</v>
       </c>
       <c r="G16">
-        <v>5.958333333333333</v>
+        <v>5.989503816793893</v>
       </c>
       <c r="H16">
-        <v>6.710526315789473</v>
+        <v>6.35673076923077</v>
       </c>
       <c r="I16">
-        <v>9.625</v>
+        <v>7.141608391608392</v>
       </c>
       <c r="J16">
-        <v>4.972222222222219</v>
+        <v>5.358800000000004</v>
       </c>
       <c r="K16">
-        <v>6.274305555555554</v>
+        <v>6.170000291358314</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1038,34 +1041,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>6.25</v>
+        <v>6.259740259740259</v>
       </c>
       <c r="C17">
-        <v>5.988095238095238</v>
+        <v>6.018421052631579</v>
       </c>
       <c r="D17">
-        <v>6.1</v>
+        <v>6.109536082474227</v>
       </c>
       <c r="E17">
-        <v>6.304347826086956</v>
+        <v>6.15450643776824</v>
       </c>
       <c r="F17">
-        <v>4.625</v>
+        <v>5.344155844155845</v>
       </c>
       <c r="G17">
-        <v>6.095238095238095</v>
+        <v>6.152631578947369</v>
       </c>
       <c r="H17">
-        <v>6.555555555555555</v>
+        <v>6.463917525773196</v>
       </c>
       <c r="I17">
-        <v>7.108695652173913</v>
+        <v>6.920600858369099</v>
       </c>
       <c r="J17">
-        <v>5.09375</v>
+        <v>5.822693540226011</v>
       </c>
       <c r="K17">
-        <v>6.33638038548753</v>
+        <v>6.416617036011083</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1073,34 +1076,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>6.202970297029703</v>
       </c>
       <c r="C18">
-        <v>6.2</v>
+        <v>5.875490196078432</v>
       </c>
       <c r="D18">
-        <v>6.3125</v>
+        <v>5.943897637795276</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>5.967353951890034</v>
       </c>
       <c r="F18">
-        <v>5.666666666666667</v>
+        <v>5.089108910891089</v>
       </c>
       <c r="G18">
-        <v>6.133333333333334</v>
+        <v>5.88921568627451</v>
       </c>
       <c r="H18">
-        <v>6.90625</v>
+        <v>6.142716535433071</v>
       </c>
       <c r="I18">
-        <v>6.928571428571429</v>
+        <v>6.439862542955327</v>
       </c>
       <c r="J18">
-        <v>5.916666666666667</v>
+        <v>5.511935104401531</v>
       </c>
       <c r="K18">
-        <v>6.553333333333332</v>
+        <v>6.053584678969631</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1108,34 +1111,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6.111111111111111</v>
+        <v>6.188118811881188</v>
       </c>
       <c r="C19">
-        <v>5.821428571428571</v>
+        <v>5.928155339805826</v>
       </c>
       <c r="D19">
-        <v>5.922222222222222</v>
+        <v>6.014150943396227</v>
       </c>
       <c r="E19">
-        <v>6.142857142857143</v>
+        <v>6.085409252669039</v>
       </c>
       <c r="F19">
-        <v>4.888888888888889</v>
+        <v>4.900990099009901</v>
       </c>
       <c r="G19">
-        <v>5.785714285714286</v>
+        <v>5.986407766990292</v>
       </c>
       <c r="H19">
-        <v>5.977777777777778</v>
+        <v>6.278301886792453</v>
       </c>
       <c r="I19">
-        <v>6.809523809523809</v>
+        <v>6.818505338078292</v>
       </c>
       <c r="J19">
-        <v>5.228395061728399</v>
+        <v>5.309773551612588</v>
       </c>
       <c r="K19">
-        <v>5.917729591836733</v>
+        <v>6.185105099443868</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1143,34 +1146,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6.5</v>
+        <v>6.128205128205129</v>
       </c>
       <c r="C20">
-        <v>6.197368421052632</v>
+        <v>6.064766839378239</v>
       </c>
       <c r="D20">
-        <v>6.162790697674419</v>
+        <v>6.106145251396648</v>
       </c>
       <c r="E20">
-        <v>6.047619047619047</v>
+        <v>6.305084745762712</v>
       </c>
       <c r="F20">
-        <v>6.125</v>
+        <v>5.371794871794871</v>
       </c>
       <c r="G20">
-        <v>6.315789473684211</v>
+        <v>6.199481865284974</v>
       </c>
       <c r="H20">
-        <v>6.534883720930233</v>
+        <v>6.365921787709497</v>
       </c>
       <c r="I20">
-        <v>6.619047619047619</v>
+        <v>7.35593220338983</v>
       </c>
       <c r="J20">
-        <v>6.875</v>
+        <v>5.726166995397764</v>
       </c>
       <c r="K20">
-        <v>6.733292936288093</v>
+        <v>6.500154366560175</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1178,34 +1181,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5.6875</v>
+        <v>6.112745098039215</v>
       </c>
       <c r="C21">
-        <v>5.925</v>
+        <v>5.915204678362573</v>
       </c>
       <c r="D21">
-        <v>6.095238095238095</v>
+        <v>6.085714285714285</v>
       </c>
       <c r="E21">
-        <v>6.307692307692307</v>
+        <v>6.14406779661017</v>
       </c>
       <c r="F21">
-        <v>4.8125</v>
+        <v>4.970588235294118</v>
       </c>
       <c r="G21">
-        <v>5.95</v>
+        <v>5.967836257309941</v>
       </c>
       <c r="H21">
-        <v>6.178571428571429</v>
+        <v>6.413333333333333</v>
       </c>
       <c r="I21">
-        <v>7.403846153846154</v>
+        <v>6.918644067796611</v>
       </c>
       <c r="J21">
-        <v>4.876953125</v>
+        <v>5.31150278738947</v>
       </c>
       <c r="K21">
-        <v>6.146562499999999</v>
+        <v>6.157834889367668</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1213,34 +1216,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>6.1</v>
+        <v>6.144736842105263</v>
       </c>
       <c r="C22">
-        <v>6.116666666666666</v>
+        <v>6.046875</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>6.145933014354067</v>
       </c>
       <c r="E22">
-        <v>6.25</v>
+        <v>6.171428571428572</v>
       </c>
       <c r="F22">
-        <v>5.9</v>
+        <v>5.315789473684211</v>
       </c>
       <c r="G22">
-        <v>6.25</v>
+        <v>6.247395833333333</v>
       </c>
       <c r="H22">
-        <v>6.12</v>
+        <v>6.583732057416268</v>
       </c>
       <c r="I22">
-        <v>7.125</v>
+        <v>6.985714285714286</v>
       </c>
       <c r="J22">
-        <v>6.229999999999999</v>
+        <v>5.684816481994458</v>
       </c>
       <c r="K22">
-        <v>6.594305555555557</v>
+        <v>6.533650716145833</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1248,34 +1251,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6.2</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="C23">
-        <v>5.857142857142857</v>
+        <v>5.990566037735849</v>
       </c>
       <c r="D23">
-        <v>5.956521739130435</v>
+        <v>5.993865030674846</v>
       </c>
       <c r="E23">
-        <v>6.09375</v>
+        <v>6.114525139664805</v>
       </c>
       <c r="F23">
-        <v>4.6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="G23">
-        <v>5.892857142857143</v>
+        <v>6.039308176100629</v>
       </c>
       <c r="H23">
-        <v>6.108695652173913</v>
+        <v>6.188650306748467</v>
       </c>
       <c r="I23">
-        <v>7.15625</v>
+        <v>6.85754189944134</v>
       </c>
       <c r="J23">
-        <v>5.019999999999998</v>
+        <v>5.617283950617288</v>
       </c>
       <c r="K23">
-        <v>6.04591836734694</v>
+        <v>6.282277204224517</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1283,34 +1286,69 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>5.9</v>
+        <v>6.2109375</v>
       </c>
       <c r="C24">
-        <v>6.020833333333333</v>
+        <v>5.905970149253731</v>
       </c>
       <c r="D24">
-        <v>6.111111111111111</v>
+        <v>6.026706231454006</v>
       </c>
       <c r="E24">
-        <v>6.115384615384615</v>
+        <v>6.029891304347826</v>
       </c>
       <c r="F24">
-        <v>5.1</v>
+        <v>5.1640625</v>
       </c>
       <c r="G24">
-        <v>6.166666666666667</v>
+        <v>5.917910447761194</v>
       </c>
       <c r="H24">
-        <v>6.685185185185185</v>
+        <v>6.321958456973293</v>
       </c>
       <c r="I24">
-        <v>6.423076923076923</v>
+        <v>6.646739130434782</v>
       </c>
       <c r="J24">
-        <v>5.279999999999999</v>
+        <v>5.594512939453125</v>
       </c>
       <c r="K24">
-        <v>6.432508680555553</v>
+        <v>6.101808866117178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>6.096153846153846</v>
+      </c>
+      <c r="C25">
+        <v>6.011538461538461</v>
+      </c>
+      <c r="D25">
+        <v>6.075539568345324</v>
+      </c>
+      <c r="E25">
+        <v>6.318181818181818</v>
+      </c>
+      <c r="F25">
+        <v>4.884615384615385</v>
+      </c>
+      <c r="G25">
+        <v>6.188461538461539</v>
+      </c>
+      <c r="H25">
+        <v>6.442446043165468</v>
+      </c>
+      <c r="I25">
+        <v>7.492424242424242</v>
+      </c>
+      <c r="J25">
+        <v>5.211353550295856</v>
+      </c>
+      <c r="K25">
+        <v>6.447181952662721</v>
       </c>
     </row>
   </sheetData>

--- a/voti_contro.xlsx
+++ b/voti_contro.xlsx
@@ -566,7 +566,7 @@
         <v>4.681372549019608</v>
       </c>
       <c r="G3">
-        <v>5.880497131931167</v>
+        <v>5.881453154875717</v>
       </c>
       <c r="H3">
         <v>6.173704414587332</v>
@@ -578,7 +578,7 @@
         <v>4.942510092272203</v>
       </c>
       <c r="K3">
-        <v>6.046806737128422</v>
+        <v>6.047762760072973</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -601,7 +601,7 @@
         <v>5.3671875</v>
       </c>
       <c r="G4">
-        <v>6.211598746081505</v>
+        <v>6.210031347962382</v>
       </c>
       <c r="H4">
         <v>6.431746031746032</v>
@@ -613,7 +613,7 @@
         <v>5.782745361328125</v>
       </c>
       <c r="K4">
-        <v>6.500474150214716</v>
+        <v>6.498906752095594</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -796,34 +796,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.173267326732673</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="C10">
-        <v>5.803001876172608</v>
+        <v>5.802607076350093</v>
       </c>
       <c r="D10">
-        <v>5.986193293885601</v>
+        <v>5.981481481481482</v>
       </c>
       <c r="E10">
-        <v>6.030249110320285</v>
+        <v>6.028268551236749</v>
       </c>
       <c r="F10">
-        <v>4.574257425742574</v>
+        <v>4.563725490196078</v>
       </c>
       <c r="G10">
-        <v>5.793621013133208</v>
+        <v>5.793296089385475</v>
       </c>
       <c r="H10">
-        <v>6.144970414201183</v>
+        <v>6.1364522417154</v>
       </c>
       <c r="I10">
-        <v>6.681494661921708</v>
+        <v>6.674911660777386</v>
       </c>
       <c r="J10">
-        <v>4.969218704048626</v>
+        <v>4.952614379084967</v>
       </c>
       <c r="K10">
-        <v>5.915276550658422</v>
+        <v>5.914733379801572</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1076,34 +1076,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6.202970297029703</v>
+        <v>6.205882352941177</v>
       </c>
       <c r="C18">
-        <v>5.875490196078432</v>
+        <v>5.87378640776699</v>
       </c>
       <c r="D18">
-        <v>5.943897637795276</v>
+        <v>5.9521484375</v>
       </c>
       <c r="E18">
-        <v>5.967353951890034</v>
+        <v>5.964406779661017</v>
       </c>
       <c r="F18">
-        <v>5.089108910891089</v>
+        <v>5.102941176470588</v>
       </c>
       <c r="G18">
-        <v>5.88921568627451</v>
+        <v>5.885436893203884</v>
       </c>
       <c r="H18">
-        <v>6.142716535433071</v>
+        <v>6.1650390625</v>
       </c>
       <c r="I18">
-        <v>6.439862542955327</v>
+        <v>6.430508474576271</v>
       </c>
       <c r="J18">
-        <v>5.511935104401531</v>
+        <v>5.528546712802773</v>
       </c>
       <c r="K18">
-        <v>6.053584678969631</v>
+        <v>6.048741634461304</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1196,7 +1196,7 @@
         <v>4.970588235294118</v>
       </c>
       <c r="G21">
-        <v>5.967836257309941</v>
+        <v>5.966861598440546</v>
       </c>
       <c r="H21">
         <v>6.413333333333333</v>
@@ -1208,7 +1208,7 @@
         <v>5.31150278738947</v>
       </c>
       <c r="K21">
-        <v>6.157834889367668</v>
+        <v>6.156860230498272</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/voti_contro.xlsx
+++ b/voti_contro.xlsx
@@ -49,64 +49,64 @@
     <t>MediaConMod_D</t>
   </si>
   <si>
+    <t>CAGLIARI</t>
+  </si>
+  <si>
+    <t>ROMA</t>
+  </si>
+  <si>
+    <t>BOLOGNA</t>
+  </si>
+  <si>
+    <t>VERONA</t>
+  </si>
+  <si>
     <t>GENOA</t>
   </si>
   <si>
-    <t>VERONA</t>
-  </si>
-  <si>
-    <t>BOLOGNA</t>
-  </si>
-  <si>
-    <t>CAGLIARI</t>
-  </si>
-  <si>
-    <t>ROMA</t>
+    <t>FROSINONE</t>
+  </si>
+  <si>
+    <t>LAZIO</t>
+  </si>
+  <si>
+    <t>SALERNITANA</t>
+  </si>
+  <si>
+    <t>INTER</t>
+  </si>
+  <si>
+    <t>MONZA</t>
+  </si>
+  <si>
+    <t>ATALANTA</t>
+  </si>
+  <si>
+    <t>NAPOLI</t>
+  </si>
+  <si>
+    <t>UDINESE</t>
+  </si>
+  <si>
+    <t>JUVENTUS</t>
+  </si>
+  <si>
+    <t>EMPOLI</t>
+  </si>
+  <si>
+    <t>LECCE</t>
+  </si>
+  <si>
+    <t>TORINO</t>
   </si>
   <si>
     <t>FIORENTINA</t>
   </si>
   <si>
-    <t>LECCE</t>
-  </si>
-  <si>
-    <t>TORINO</t>
-  </si>
-  <si>
-    <t>EMPOLI</t>
-  </si>
-  <si>
-    <t>JUVENTUS</t>
-  </si>
-  <si>
-    <t>FROSINONE</t>
-  </si>
-  <si>
-    <t>LAZIO</t>
-  </si>
-  <si>
     <t>MILAN</t>
   </si>
   <si>
     <t>SASSUOLO</t>
-  </si>
-  <si>
-    <t>ATALANTA</t>
-  </si>
-  <si>
-    <t>NAPOLI</t>
-  </si>
-  <si>
-    <t>UDINESE</t>
-  </si>
-  <si>
-    <t>INTER</t>
-  </si>
-  <si>
-    <t>MONZA</t>
-  </si>
-  <si>
-    <t>SALERNITANA</t>
   </si>
 </sst>
 </file>
@@ -513,34 +513,34 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>6.1875</v>
+        <v>6.125</v>
       </c>
       <c r="D2">
-        <v>6.058139534883721</v>
+        <v>5.822222222222222</v>
       </c>
       <c r="E2">
-        <v>6.0125</v>
+        <v>6.081395348837209</v>
       </c>
       <c r="F2">
-        <v>5.916666666666667</v>
+        <v>6.204545454545454</v>
       </c>
       <c r="G2">
-        <v>5.1875</v>
+        <v>4.5625</v>
       </c>
       <c r="H2">
-        <v>6.186046511627907</v>
+        <v>5.822222222222222</v>
       </c>
       <c r="I2">
-        <v>6.225</v>
+        <v>6.558139534883721</v>
       </c>
       <c r="J2">
-        <v>6.208333333333333</v>
+        <v>6.886363636363637</v>
       </c>
       <c r="K2">
-        <v>5.8125</v>
+        <v>4.9375</v>
       </c>
       <c r="L2">
-        <v>6.651162790697675</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -551,34 +551,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>6.125</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>5.973684210526316</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="E3">
-        <v>6.081395348837209</v>
+        <v>6.078947368421052</v>
       </c>
       <c r="F3">
-        <v>6.020833333333333</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>5.5</v>
+        <v>4.375</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3">
-        <v>6.418604651162791</v>
+        <v>6.355263157894737</v>
       </c>
       <c r="J3">
-        <v>6.604166666666667</v>
+        <v>6.318181818181818</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>4.65625</v>
       </c>
       <c r="L3">
-        <v>6.322368421052632</v>
+        <v>6.289473684210527</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -589,34 +589,34 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>5.9375</v>
+        <v>6.1875</v>
       </c>
       <c r="D4">
-        <v>5.775</v>
+        <v>5.936170212765957</v>
       </c>
       <c r="E4">
-        <v>6.051282051282051</v>
+        <v>5.761904761904762</v>
       </c>
       <c r="F4">
-        <v>5.818181818181818</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="G4">
-        <v>3.9375</v>
+        <v>4.875</v>
       </c>
       <c r="H4">
-        <v>5.6</v>
+        <v>5.893617021276595</v>
       </c>
       <c r="I4">
-        <v>6.487179487179487</v>
+        <v>5.702380952380953</v>
       </c>
       <c r="J4">
-        <v>6.090909090909091</v>
+        <v>6.157894736842105</v>
       </c>
       <c r="K4">
-        <v>4.375</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>5.8875</v>
+        <v>6.175531914893617</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -627,34 +627,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>5.9375</v>
       </c>
       <c r="D5">
-        <v>6.131578947368421</v>
+        <v>5.95</v>
       </c>
       <c r="E5">
-        <v>6.144444444444445</v>
+        <v>6.134146341463414</v>
       </c>
       <c r="F5">
-        <v>6.225</v>
+        <v>5.761904761904762</v>
       </c>
       <c r="G5">
-        <v>5.9375</v>
+        <v>4.9375</v>
       </c>
       <c r="H5">
-        <v>6.289473684210527</v>
+        <v>5.9625</v>
       </c>
       <c r="I5">
-        <v>6.533333333333333</v>
+        <v>6.524390243902439</v>
       </c>
       <c r="J5">
-        <v>7.025</v>
+        <v>6.047619047619047</v>
       </c>
       <c r="K5">
-        <v>6.96875</v>
+        <v>5.25</v>
       </c>
       <c r="L5">
-        <v>6.776315789473684</v>
+        <v>6.29375</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -665,34 +665,34 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>6.125</v>
+        <v>6.3125</v>
       </c>
       <c r="D6">
-        <v>5.904761904761905</v>
+        <v>5.806818181818182</v>
       </c>
       <c r="E6">
-        <v>6.034883720930233</v>
+        <v>6.119047619047619</v>
       </c>
       <c r="F6">
-        <v>5.958333333333333</v>
+        <v>5.875</v>
       </c>
       <c r="G6">
-        <v>4.25</v>
+        <v>5.4375</v>
       </c>
       <c r="H6">
-        <v>6.071428571428571</v>
+        <v>5.738636363636363</v>
       </c>
       <c r="I6">
-        <v>6.383720930232558</v>
+        <v>6.630952380952381</v>
       </c>
       <c r="J6">
-        <v>6.208333333333333</v>
+        <v>6.1875</v>
       </c>
       <c r="K6">
-        <v>4.65625</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>6.440476190476191</v>
+        <v>5.988636363636363</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -703,34 +703,34 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.125</v>
       </c>
       <c r="D7">
-        <v>5.930232558139535</v>
+        <v>5.7625</v>
       </c>
       <c r="E7">
-        <v>6.148648648648648</v>
+        <v>5.977777777777778</v>
       </c>
       <c r="F7">
-        <v>6.074074074074074</v>
+        <v>5.975</v>
       </c>
       <c r="G7">
-        <v>5.3125</v>
+        <v>5.375</v>
       </c>
       <c r="H7">
-        <v>5.953488372093023</v>
+        <v>5.6375</v>
       </c>
       <c r="I7">
-        <v>6.486486486486487</v>
+        <v>6.255555555555556</v>
       </c>
       <c r="J7">
-        <v>6.703703703703703</v>
+        <v>6.175</v>
       </c>
       <c r="K7">
-        <v>5.96875</v>
+        <v>5.75</v>
       </c>
       <c r="L7">
-        <v>6.313953488372093</v>
+        <v>5.86875</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -741,34 +741,34 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>6.3125</v>
+        <v>6.375</v>
       </c>
       <c r="D8">
-        <v>6.011904761904762</v>
+        <v>5.878048780487805</v>
       </c>
       <c r="E8">
-        <v>6.190476190476191</v>
+        <v>5.829268292682927</v>
       </c>
       <c r="F8">
-        <v>6.325</v>
+        <v>6.025</v>
       </c>
       <c r="G8">
-        <v>6.0625</v>
+        <v>4.9375</v>
       </c>
       <c r="H8">
-        <v>6.25</v>
+        <v>5.890243902439025</v>
       </c>
       <c r="I8">
-        <v>6.595238095238095</v>
+        <v>5.878048780487805</v>
       </c>
       <c r="J8">
-        <v>7.6</v>
+        <v>6.475</v>
       </c>
       <c r="K8">
-        <v>6.6875</v>
+        <v>5.65625</v>
       </c>
       <c r="L8">
-        <v>6.666666666666667</v>
+        <v>6.170731707317073</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -779,34 +779,34 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>6.142857142857143</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D9">
-        <v>5.783783783783784</v>
+        <v>6.127906976744186</v>
       </c>
       <c r="E9">
-        <v>5.77027027027027</v>
+        <v>6.22093023255814</v>
       </c>
       <c r="F9">
-        <v>5.705882352941177</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H9">
-        <v>5.72972972972973</v>
+        <v>6.325581395348837</v>
       </c>
       <c r="I9">
-        <v>5.783783783783784</v>
+        <v>6.906976744186046</v>
       </c>
       <c r="J9">
-        <v>5.882352941176471</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="K9">
-        <v>5.428571428571429</v>
+        <v>6.027777777777778</v>
       </c>
       <c r="L9">
-        <v>6.060810810810811</v>
+        <v>6.767441860465116</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -817,34 +817,34 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>6.0625</v>
+        <v>6.125</v>
       </c>
       <c r="D10">
-        <v>5.857142857142857</v>
+        <v>5.723404255319149</v>
       </c>
       <c r="E10">
-        <v>5.848837209302325</v>
+        <v>5.686046511627907</v>
       </c>
       <c r="F10">
-        <v>5.977272727272728</v>
+        <v>5.970588235294118</v>
       </c>
       <c r="G10">
-        <v>4.9375</v>
+        <v>4.375</v>
       </c>
       <c r="H10">
-        <v>5.678571428571429</v>
+        <v>5.723404255319149</v>
       </c>
       <c r="I10">
-        <v>5.883720930232558</v>
+        <v>5.732558139534884</v>
       </c>
       <c r="J10">
-        <v>6.863636363636363</v>
+        <v>6.088235294117647</v>
       </c>
       <c r="K10">
-        <v>5.25</v>
+        <v>4.78125</v>
       </c>
       <c r="L10">
-        <v>6.017857142857143</v>
+        <v>5.941489361702128</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -855,34 +855,34 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>6.0625</v>
       </c>
       <c r="D11">
-        <v>5.872093023255814</v>
+        <v>5.964285714285714</v>
       </c>
       <c r="E11">
-        <v>6.039473684210527</v>
+        <v>6.085365853658536</v>
       </c>
       <c r="F11">
-        <v>5.9375</v>
+        <v>6.261904761904762</v>
       </c>
       <c r="G11">
-        <v>4.5</v>
+        <v>4.875</v>
       </c>
       <c r="H11">
-        <v>5.906976744186046</v>
+        <v>5.892857142857143</v>
       </c>
       <c r="I11">
-        <v>6.25</v>
+        <v>6.402439024390244</v>
       </c>
       <c r="J11">
-        <v>6.020833333333333</v>
+        <v>7.595238095238095</v>
       </c>
       <c r="K11">
-        <v>4.90625</v>
+        <v>5.1875</v>
       </c>
       <c r="L11">
-        <v>6.209302325581396</v>
+        <v>6.238095238095238</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -893,34 +893,34 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>6.111111111111111</v>
+        <v>6.1875</v>
       </c>
       <c r="D12">
-        <v>6.226190476190476</v>
+        <v>5.925</v>
       </c>
       <c r="E12">
-        <v>6.239130434782608</v>
+        <v>5.96875</v>
       </c>
       <c r="F12">
-        <v>6.386363636363637</v>
+        <v>6.136363636363637</v>
       </c>
       <c r="G12">
-        <v>4.944444444444445</v>
+        <v>4.5625</v>
       </c>
       <c r="H12">
-        <v>6.595238095238095</v>
+        <v>6.1875</v>
       </c>
       <c r="I12">
-        <v>6.836956521739131</v>
+        <v>6.260416666666667</v>
       </c>
       <c r="J12">
-        <v>7.545454545454546</v>
+        <v>6.681818181818182</v>
       </c>
       <c r="K12">
-        <v>5.444444444444445</v>
+        <v>5.03125</v>
       </c>
       <c r="L12">
-        <v>7.142857142857143</v>
+        <v>6.5875</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -931,34 +931,34 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>6.071428571428571</v>
+        <v>6.4375</v>
       </c>
       <c r="D13">
-        <v>5.878378378378378</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="E13">
-        <v>5.973684210526316</v>
+        <v>5.951219512195122</v>
       </c>
       <c r="F13">
-        <v>5.892857142857143</v>
+        <v>6.340909090909091</v>
       </c>
       <c r="G13">
-        <v>4.5</v>
+        <v>4.6875</v>
       </c>
       <c r="H13">
-        <v>5.810810810810811</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="I13">
-        <v>6.289473684210527</v>
+        <v>6.329268292682927</v>
       </c>
       <c r="J13">
-        <v>6.392857142857143</v>
+        <v>7.386363636363637</v>
       </c>
       <c r="K13">
-        <v>4.892857142857143</v>
+        <v>5.5625</v>
       </c>
       <c r="L13">
-        <v>6.108108108108108</v>
+        <v>6.279761904761905</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -969,34 +969,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>6.111111111111111</v>
+        <v>6.1875</v>
       </c>
       <c r="D14">
-        <v>5.7375</v>
+        <v>5.918604651162791</v>
       </c>
       <c r="E14">
-        <v>5.98936170212766</v>
+        <v>6.182926829268292</v>
       </c>
       <c r="F14">
-        <v>6.190476190476191</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="G14">
-        <v>4.444444444444445</v>
+        <v>5.3125</v>
       </c>
       <c r="H14">
-        <v>5.65</v>
+        <v>5.906976744186046</v>
       </c>
       <c r="I14">
-        <v>6.340425531914893</v>
+        <v>6.646341463414634</v>
       </c>
       <c r="J14">
-        <v>6.857142857142857</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="K14">
-        <v>4.833333333333333</v>
+        <v>5.8125</v>
       </c>
       <c r="L14">
-        <v>5.8375</v>
+        <v>6.197674418604652</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1007,34 +1007,34 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>6.25</v>
+        <v>6.1875</v>
       </c>
       <c r="D15">
-        <v>6.153846153846154</v>
+        <v>6.027027027027027</v>
       </c>
       <c r="E15">
-        <v>6.188888888888889</v>
+        <v>6.059523809523809</v>
       </c>
       <c r="F15">
-        <v>6.117647058823529</v>
+        <v>5.958333333333333</v>
       </c>
       <c r="G15">
+        <v>5.4375</v>
+      </c>
+      <c r="H15">
+        <v>6.135135135135135</v>
+      </c>
+      <c r="I15">
+        <v>6.261904761904762</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="H15">
-        <v>6.294871794871795</v>
-      </c>
-      <c r="I15">
-        <v>6.688888888888889</v>
-      </c>
-      <c r="J15">
-        <v>7.117647058823529</v>
-      </c>
       <c r="K15">
-        <v>6.78125</v>
+        <v>5.875</v>
       </c>
       <c r="L15">
-        <v>6.762820512820513</v>
+        <v>6.52027027027027</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1045,34 +1045,34 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>6.125</v>
+        <v>6.0625</v>
       </c>
       <c r="D16">
-        <v>5.654761904761905</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="E16">
-        <v>5.861702127659575</v>
+        <v>6.141025641025641</v>
       </c>
       <c r="F16">
-        <v>5.825</v>
+        <v>6.090909090909091</v>
       </c>
       <c r="G16">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="H16">
-        <v>5.583333333333333</v>
+        <v>6.288888888888889</v>
       </c>
       <c r="I16">
-        <v>5.957446808510638</v>
+        <v>6.410256410256411</v>
       </c>
       <c r="J16">
-        <v>5.975</v>
+        <v>6.795454545454546</v>
       </c>
       <c r="K16">
-        <v>4.125</v>
+        <v>5.84375</v>
       </c>
       <c r="L16">
-        <v>5.767857142857143</v>
+        <v>6.777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1083,34 +1083,34 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>6.375</v>
+        <v>6.3125</v>
       </c>
       <c r="D17">
-        <v>6.182926829268292</v>
+        <v>5.736842105263158</v>
       </c>
       <c r="E17">
-        <v>6.226190476190476</v>
+        <v>5.901960784313726</v>
       </c>
       <c r="F17">
-        <v>6.194444444444445</v>
+        <v>5.809523809523809</v>
       </c>
       <c r="G17">
-        <v>5.75</v>
+        <v>5.1875</v>
       </c>
       <c r="H17">
-        <v>6.304878048780488</v>
+        <v>5.631578947368421</v>
       </c>
       <c r="I17">
-        <v>6.369047619047619</v>
+        <v>6.068627450980392</v>
       </c>
       <c r="J17">
-        <v>6.583333333333333</v>
+        <v>6.190476190476191</v>
       </c>
       <c r="K17">
-        <v>6.4375</v>
+        <v>5.78125</v>
       </c>
       <c r="L17">
-        <v>6.804878048780488</v>
+        <v>5.881578947368421</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1121,34 +1121,34 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>6.125</v>
+        <v>6.375</v>
       </c>
       <c r="D18">
-        <v>5.853658536585366</v>
+        <v>5.953488372093023</v>
       </c>
       <c r="E18">
-        <v>5.829545454545454</v>
+        <v>5.841463414634147</v>
       </c>
       <c r="F18">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="G18">
-        <v>4.875</v>
+        <v>5.625</v>
       </c>
       <c r="H18">
-        <v>5.890243902439025</v>
+        <v>5.883720930232558</v>
       </c>
       <c r="I18">
-        <v>6.079545454545454</v>
+        <v>5.975609756097561</v>
       </c>
       <c r="J18">
-        <v>6.825</v>
+        <v>6.46</v>
       </c>
       <c r="K18">
-        <v>5.3125</v>
+        <v>6.3125</v>
       </c>
       <c r="L18">
-        <v>6.146341463414634</v>
+        <v>6.174418604651163</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1162,31 +1162,31 @@
         <v>6.4375</v>
       </c>
       <c r="D19">
-        <v>5.710526315789473</v>
+        <v>5.813953488372093</v>
       </c>
       <c r="E19">
-        <v>5.78125</v>
+        <v>5.877777777777778</v>
       </c>
       <c r="F19">
-        <v>5.55</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="G19">
-        <v>3.9375</v>
+        <v>5.1875</v>
       </c>
       <c r="H19">
-        <v>5.657894736842105</v>
+        <v>5.918604651162791</v>
       </c>
       <c r="I19">
-        <v>5.90625</v>
+        <v>6.144444444444445</v>
       </c>
       <c r="J19">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>4.8125</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>5.861842105263158</v>
+        <v>6.203488372093023</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1197,34 +1197,34 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>6.166666666666667</v>
+        <v>6.4375</v>
       </c>
       <c r="D20">
-        <v>5.829268292682927</v>
+        <v>5.77906976744186</v>
       </c>
       <c r="E20">
-        <v>6.079545454545454</v>
+        <v>5.947368421052632</v>
       </c>
       <c r="F20">
-        <v>5.934782608695652</v>
+        <v>6.018518518518518</v>
       </c>
       <c r="G20">
-        <v>5.5</v>
+        <v>4.6875</v>
       </c>
       <c r="H20">
-        <v>5.74390243902439</v>
+        <v>5.72093023255814</v>
       </c>
       <c r="I20">
-        <v>6.522727272727272</v>
+        <v>5.960526315789473</v>
       </c>
       <c r="J20">
-        <v>6.478260869565218</v>
+        <v>6.537037037037037</v>
       </c>
       <c r="K20">
-        <v>5.972222222222222</v>
+        <v>5.40625</v>
       </c>
       <c r="L20">
-        <v>6.036585365853658</v>
+        <v>5.994186046511628</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1235,34 +1235,34 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>6.25</v>
+        <v>6.0625</v>
       </c>
       <c r="D21">
-        <v>6.214285714285714</v>
+        <v>6.065789473684211</v>
       </c>
       <c r="E21">
-        <v>5.978723404255319</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="F21">
-        <v>6.282608695652174</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="G21">
-        <v>5.375</v>
+        <v>5.0625</v>
       </c>
       <c r="H21">
-        <v>6.4</v>
+        <v>6.236842105263158</v>
       </c>
       <c r="I21">
-        <v>6.191489361702128</v>
+        <v>6.619047619047619</v>
       </c>
       <c r="J21">
-        <v>7.260869565217392</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="K21">
-        <v>5.90625</v>
+        <v>5.40625</v>
       </c>
       <c r="L21">
-        <v>6.992857142857143</v>
+        <v>6.736842105263158</v>
       </c>
     </row>
   </sheetData>
